--- a/Isoform_ID/expression_samples_list.xlsx
+++ b/Isoform_ID/expression_samples_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amydapper/Desktop/MolEvo-Rec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amydapper/Desktop/Evo_RecGenes_MS/Isoform_ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC028FB-E0BE-2046-9676-7FBED6F81587}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC604285-2DAE-5645-B32B-BDA7A961227A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1380" windowWidth="34180" windowHeight="18900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="13420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1072">
   <si>
     <t>SPO11</t>
   </si>
@@ -2955,12 +2955,405 @@
   <si>
     <t>XM_016424383.1</t>
   </si>
+  <si>
+    <t>BRCC3</t>
+  </si>
+  <si>
+    <t>no coverage for a couple of exons</t>
+  </si>
+  <si>
+    <t>XM_008159532.1</t>
+  </si>
+  <si>
+    <t>MUS81</t>
+  </si>
+  <si>
+    <t>XM_008146941.1</t>
+  </si>
+  <si>
+    <t>expression data supports the presence of a  second isoform missing one exon - not in database</t>
+  </si>
+  <si>
+    <t>MRE11</t>
+  </si>
+  <si>
+    <t>RAD50</t>
+  </si>
+  <si>
+    <t>SHOC1</t>
+  </si>
+  <si>
+    <t>XM_008149225.1</t>
+  </si>
+  <si>
+    <t>XM_008142454.1 </t>
+  </si>
+  <si>
+    <t>NBS1</t>
+  </si>
+  <si>
+    <t>NBN (same?)</t>
+  </si>
+  <si>
+    <t>XM_008158869.1</t>
+  </si>
+  <si>
+    <t>X3/X9</t>
+  </si>
+  <si>
+    <t>Most inclusive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X6/X7 </t>
+  </si>
+  <si>
+    <t>Best match</t>
+  </si>
+  <si>
+    <t>XM_003809952.3</t>
+  </si>
+  <si>
+    <t>XM_008962328.2 </t>
+  </si>
+  <si>
+    <t>XM_008954083.1</t>
+  </si>
+  <si>
+    <t>XM_003828642.2</t>
+  </si>
+  <si>
+    <t>XM_008966413.1</t>
+  </si>
+  <si>
+    <t>XM_003829302.3</t>
+  </si>
+  <si>
+    <t>XM_003821145.4</t>
+  </si>
+  <si>
+    <t>Low coverage</t>
+  </si>
+  <si>
+    <t>XM_008141800.1</t>
+  </si>
+  <si>
+    <t>C9orf84</t>
+  </si>
+  <si>
+    <t>XM_008963253.2</t>
+  </si>
+  <si>
+    <t>XM_016944629.2</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>XM_521347.6</t>
+  </si>
+  <si>
+    <t>XM_016919866.2</t>
+  </si>
+  <si>
+    <t>NM_001280496.1</t>
+  </si>
+  <si>
+    <t>XM_016921830.2</t>
+  </si>
+  <si>
+    <t>XM_001163412.6</t>
+  </si>
+  <si>
+    <t>XM_016959657.1</t>
+  </si>
+  <si>
+    <t>XM_016961425.1</t>
+  </si>
+  <si>
+    <t>XM_005227647.4 </t>
+  </si>
+  <si>
+    <t>NM_001192605.1</t>
+  </si>
+  <si>
+    <t>NM_001206868.1</t>
+  </si>
+  <si>
+    <t>NM_001075837.2 </t>
+  </si>
+  <si>
+    <t>** Missing exon not in database transcripts.</t>
+  </si>
+  <si>
+    <t>XM_015472683.2</t>
+  </si>
+  <si>
+    <t>ENSBTAT00000053203.2</t>
+  </si>
+  <si>
+    <t>XM_850374.6</t>
+  </si>
+  <si>
+    <t>XM_022405636.1 </t>
+  </si>
+  <si>
+    <t>XM_005633352.2 </t>
+  </si>
+  <si>
+    <t>XM_022425268.1</t>
+  </si>
+  <si>
+    <t>ENSCAFT00000014292.4</t>
+  </si>
+  <si>
+    <t>** Poor match to expression data!</t>
+  </si>
+  <si>
+    <t>XM_014117920.2</t>
+  </si>
+  <si>
+    <t>XM_004065160.2</t>
+  </si>
+  <si>
+    <t>XM_019036094.1</t>
+  </si>
+  <si>
+    <t>XM_019037427.1</t>
+  </si>
+  <si>
+    <t>Weird transcript stuff going on - rearrangement or something … ?????</t>
+  </si>
+  <si>
+    <t>XM_004042473.2</t>
+  </si>
+  <si>
+    <t>XM_019032379.1</t>
+  </si>
+  <si>
+    <t>XM_019033001.1</t>
+  </si>
+  <si>
+    <t>XM_003365914.4</t>
+  </si>
+  <si>
+    <t>XM_001494546.4</t>
+  </si>
+  <si>
+    <t>XM_001498350.6</t>
+  </si>
+  <si>
+    <t>XM_001504442.6 </t>
+  </si>
+  <si>
+    <t>XM_014728036.2</t>
+  </si>
+  <si>
+    <t>XM_023628652.1</t>
+  </si>
+  <si>
+    <t>ENST00000369462.5</t>
+  </si>
+  <si>
+    <t>ENST00000308110.8</t>
+  </si>
+  <si>
+    <t>ENST00000323929.7</t>
+  </si>
+  <si>
+    <t>ENST00000378823.7</t>
+  </si>
+  <si>
+    <t>ENST00000265433.7</t>
+  </si>
+  <si>
+    <t>ENST00000318737.8</t>
+  </si>
+  <si>
+    <t>XM_001097957.3 </t>
+  </si>
+  <si>
+    <t>XM_015113669.1</t>
+  </si>
+  <si>
+    <t>XM_015115484.1 </t>
+  </si>
+  <si>
+    <t>XM_015140734.1</t>
+  </si>
+  <si>
+    <t>NM_001265739.1</t>
+  </si>
+  <si>
+    <t>evidence of exon not in reference.</t>
+  </si>
+  <si>
+    <t>NM_001194305.2</t>
+  </si>
+  <si>
+    <t>ENSCJAT00000008283.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low cov </t>
+  </si>
+  <si>
+    <t>XM_017978286.1</t>
+  </si>
+  <si>
+    <t>XM_002754671.4</t>
+  </si>
+  <si>
+    <t>XM_017965277.1</t>
+  </si>
+  <si>
+    <t>XM_003734968.3</t>
+  </si>
+  <si>
+    <t>XM_009001231.2</t>
+  </si>
+  <si>
+    <t>ENSMUST00000033544.13</t>
+  </si>
+  <si>
+    <t>ENSMUST00000124334.7</t>
+  </si>
+  <si>
+    <t>ENSMUST00000034405.10</t>
+  </si>
+  <si>
+    <t>Mre11a</t>
+  </si>
+  <si>
+    <t>ENSMUST00000020649.13</t>
+  </si>
+  <si>
+    <t>Nbn</t>
+  </si>
+  <si>
+    <t>ENSMUST00000029879.14</t>
+  </si>
+  <si>
+    <t>AI481877</t>
+  </si>
+  <si>
+    <t>ENSMUST00000107547.1</t>
+  </si>
+  <si>
+    <t>NM_001132435.1</t>
+  </si>
+  <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>XM_009235437.1</t>
+  </si>
+  <si>
+    <t>XM_024254918.1 </t>
+  </si>
+  <si>
+    <t>XM_024255393.1 </t>
+  </si>
+  <si>
+    <t>XM_002815863.3</t>
+  </si>
+  <si>
+    <t>NM_001131728.1</t>
+  </si>
+  <si>
+    <t>XM_024252094.1</t>
+  </si>
+  <si>
+    <t>NM_001243023.1</t>
+  </si>
+  <si>
+    <t>XM_003122526.5</t>
+  </si>
+  <si>
+    <t>XM_003129788.5</t>
+  </si>
+  <si>
+    <t>XM_003354274.4</t>
+  </si>
+  <si>
+    <t>XM_021089136.1</t>
+  </si>
+  <si>
+    <t>XM_021085151.1</t>
+  </si>
+  <si>
+    <t>NM_001127300.1</t>
+  </si>
+  <si>
+    <t>Missing most of gene????</t>
+  </si>
+  <si>
+    <t>ENSRNOT00000028015.6</t>
+  </si>
+  <si>
+    <t>ENSRNOT00000012940.4</t>
+  </si>
+  <si>
+    <t>ENSRNOT00000063772.2</t>
+  </si>
+  <si>
+    <t>ENSRNOT00000012377.4</t>
+  </si>
+  <si>
+    <t>ENSRNOT00000087380.1</t>
+  </si>
+  <si>
+    <t>XM_006171070.2</t>
+  </si>
+  <si>
+    <t>XM_006149911.2</t>
+  </si>
+  <si>
+    <t>XM_014593321.1 </t>
+  </si>
+  <si>
+    <t>XM_014583584.1</t>
+  </si>
+  <si>
+    <t>XM_006157551.2</t>
+  </si>
+  <si>
+    <t>XM_006142736.1</t>
+  </si>
+  <si>
+    <t>???????</t>
+  </si>
+  <si>
+    <t>XM_015104955.1</t>
+  </si>
+  <si>
+    <t>XM_004019678.3</t>
+  </si>
+  <si>
+    <t>*** clearly both isoforms - use one that lines up best with other species</t>
+  </si>
+  <si>
+    <t>XM_012102142.2</t>
+  </si>
+  <si>
+    <t>XM_012095281.1</t>
+  </si>
+  <si>
+    <t>XM_004008637.3</t>
+  </si>
+  <si>
+    <t>XM_004011849.2</t>
+  </si>
+  <si>
+    <t>XM_012153904.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3054,6 +3447,12 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3139,7 +3538,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3187,6 +3586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -3895,10 +4295,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B2:B28"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4238,6 +4638,54 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1005</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4266,6 +4714,12 @@
     <hyperlink ref="B18" r:id="rId23" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
     <hyperlink ref="B19" r:id="rId24" xr:uid="{00000000-0004-0000-0900-000017000000}"/>
     <hyperlink ref="F25" r:id="rId25" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
+    <hyperlink ref="B28" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003365914.4" xr:uid="{FDB6BA55-B2BB-5A40-8373-F1F4A7533B2F}"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001494546.4" xr:uid="{3306224F-2A76-BF44-8A18-BAAA3C9B4699}"/>
+    <hyperlink ref="B30" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001498350.6" xr:uid="{A38727B1-781B-144D-8632-3CB751E4123A}"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001504442.6" xr:uid="{9EC8A6FB-367A-A24C-BEE7-2D71D399D265}"/>
+    <hyperlink ref="B32" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014728036.2" xr:uid="{50DF6991-A9B7-A54B-834D-777E73A4A224}"/>
+    <hyperlink ref="B33" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_023628652.1" xr:uid="{B43B2917-5E78-4E46-A984-C73F62932DED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4273,10 +4727,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5018,6 +5472,72 @@
       </c>
       <c r="O27" t="s">
         <v>573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C28" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C29" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C30" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C31" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C32" s="12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C33" s="12">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5099,6 +5619,12 @@
     <hyperlink ref="M23" r:id="rId75" xr:uid="{00000000-0004-0000-0A00-00004A000000}"/>
     <hyperlink ref="O23" r:id="rId76" xr:uid="{00000000-0004-0000-0A00-00004B000000}"/>
     <hyperlink ref="B24" r:id="rId77" xr:uid="{00000000-0004-0000-0A00-00004C000000}"/>
+    <hyperlink ref="B28" r:id="rId78" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000185515;r=X:155071420-155123074;t=ENST00000369462" xr:uid="{A337CCE3-5EFD-EB4E-8172-D05ACF0FAB1D}"/>
+    <hyperlink ref="B29" r:id="rId79" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000172732;r=11:65857126-65867653;t=ENST00000308110" xr:uid="{FC923665-E4AB-9243-827D-53EACFF97F2D}"/>
+    <hyperlink ref="B30" r:id="rId80" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000020922;r=11:94415578-94493908;t=ENST00000323929" xr:uid="{2B09403D-31D1-AF4C-BE0B-3AEC7AB62212}"/>
+    <hyperlink ref="B31" r:id="rId81" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000113522;r=5:132556019-132646344;t=ENST00000378823" xr:uid="{7F5CBD43-4FA8-2147-8375-A6814978E2A6}"/>
+    <hyperlink ref="B32" r:id="rId82" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000104320;r=8:89933336-90003228;t=ENST00000265433" xr:uid="{14F37D88-B3D8-2C45-8987-8B9A63FD3D4A}"/>
+    <hyperlink ref="B33" r:id="rId83" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000165181;r=9:111686173-111795008;t=ENST00000318737" xr:uid="{32D733BB-B294-684E-BAE1-338B38FE07E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5106,10 +5632,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J27" sqref="J2:J27"/>
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5451,6 +5977,57 @@
       </c>
       <c r="J27" s="10" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -5481,6 +6058,12 @@
     <hyperlink ref="J7" r:id="rId24" xr:uid="{00000000-0004-0000-0B00-000017000000}"/>
     <hyperlink ref="J5" r:id="rId25" xr:uid="{00000000-0004-0000-0B00-000018000000}"/>
     <hyperlink ref="J2" r:id="rId26" xr:uid="{00000000-0004-0000-0B00-000019000000}"/>
+    <hyperlink ref="J28" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001097957.3" xr:uid="{943FC481-3002-6240-83B1-3F040CD53BA5}"/>
+    <hyperlink ref="J29" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015113669.1" xr:uid="{DE308A57-E6CD-494D-BA3F-EC6329974039}"/>
+    <hyperlink ref="J30" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015115484.1" xr:uid="{D8629A66-49BD-F146-AE73-199529F3CAE1}"/>
+    <hyperlink ref="J31" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015140734.1" xr:uid="{68E1A4AC-74BB-384C-8153-2E86AC9550FC}"/>
+    <hyperlink ref="J32" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001265739.1" xr:uid="{CC76675B-5DEF-0D47-A51B-DB45A5C3D186}"/>
+    <hyperlink ref="J33" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001194305.2" xr:uid="{8B4185F2-029C-9745-BF0A-ECB1F89FFE8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5488,10 +6071,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showRuler="0" topLeftCell="A16" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5959,17 +6542,80 @@
         <v>566</v>
       </c>
     </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="http://useast.ensembl.org/Callithrix_jacchus/Transcript/Summary?db=core;g=ENSCJAG00000004308;r=NTIC01017779.1:666760-741086;t=ENSCJAT00000008283" xr:uid="{41704ADC-D293-CF42-B1CE-E7B3FC04EC07}"/>
+    <hyperlink ref="B29" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017978286.1" xr:uid="{EE2365AC-39AB-7445-9DB6-5EC746F42A2F}"/>
+    <hyperlink ref="B30" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002754671.4" xr:uid="{7AC90C5C-F69A-4E44-AB1E-3A140725A667}"/>
+    <hyperlink ref="B31" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017965277.1" xr:uid="{8FAE25CA-11D8-9C41-A053-45B56CB9339C}"/>
+    <hyperlink ref="B32" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003734968.3" xr:uid="{9600D9B7-12A6-DC41-B207-FEBDA225D332}"/>
+    <hyperlink ref="B33" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_009001231.2" xr:uid="{E6ABA752-17FF-384C-9DD4-F2717EC62C03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6581,8 +7227,92 @@
         <v>6</v>
       </c>
     </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C28">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C29">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C30">
+        <v>201</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C31">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C32">
+        <v>201</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C33">
+        <v>201</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>1033</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031201;r=X:75416628-75454001;t=ENSMUST00000033544" xr:uid="{E658540D-ACEC-7342-A4B9-CFD7F375FCDE}"/>
+    <hyperlink ref="B29" r:id="rId2" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000024906;r=19:5482345-5488402;t=ENSMUST00000124334" xr:uid="{AC7EF117-A4DE-2C48-BC3E-F9B199CAB183}"/>
+    <hyperlink ref="B30" r:id="rId3" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031928;r=9:14784654-14837123;t=ENSMUST00000034405" xr:uid="{4A493A3F-58FF-F742-A673-DBB2475D33BA}"/>
+    <hyperlink ref="B31" r:id="rId4" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000020380;r=11:53649519-53707319;t=ENSMUST00000020649" xr:uid="{F092F7D4-6B2F-0641-823B-3648B7FAFF05}"/>
+    <hyperlink ref="B32" r:id="rId5" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000028224;r=4:15957925-15992589;t=ENSMUST00000029879" xr:uid="{691644BE-71B4-8943-BC8C-193B08E9CB21}"/>
+    <hyperlink ref="B33" r:id="rId6" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000038598;r=4:59043753-59138983;t=ENSMUST00000107547" xr:uid="{A5A185D7-7BF1-F949-979C-3F13ED3F2563}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6934,10 +7664,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B33" sqref="B28:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7320,17 +8050,83 @@
         <v>736</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="19" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1043</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001132435.1" xr:uid="{859CD43C-0E99-D84A-A379-F5FB09FB5A4A}"/>
+    <hyperlink ref="D28" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_009235437.1" xr:uid="{416B9B92-C716-A345-85F5-935F1EC4F309}"/>
+    <hyperlink ref="B29" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024254918.1" xr:uid="{63AE2A13-8B4A-C947-8343-3789C5B47FC2}"/>
+    <hyperlink ref="B30" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024255393.1" xr:uid="{964E2AE9-F6AE-D041-8131-A253B47E9405}"/>
+    <hyperlink ref="B31" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002815863.3" xr:uid="{BC807232-AA96-4347-82B3-EF789F918AAB}"/>
+    <hyperlink ref="B32" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001131728.1" xr:uid="{1E56FCC1-2550-2944-9169-3DB75A244549}"/>
+    <hyperlink ref="B33" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024252094.1" xr:uid="{E6A81877-1072-7E48-A0E4-8E2662D5A674}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B2:B28"/>
+    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7669,11 +8465,68 @@
       </c>
     </row>
     <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1044</v>
+      </c>
       <c r="I28" t="s">
         <v>739</v>
       </c>
     </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001243023.1" xr:uid="{716751AF-1231-9342-ADA4-1725F695EAFC}"/>
+    <hyperlink ref="B29" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003122526.5" xr:uid="{25759D58-D08F-EC4F-B962-6A360B284615}"/>
+    <hyperlink ref="B30" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003129788.5" xr:uid="{6D3D2724-988A-934A-B5F0-0473634F201E}"/>
+    <hyperlink ref="B31" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003354274.4" xr:uid="{C200FFB3-77D6-9647-A49C-66B7CD161B75}"/>
+    <hyperlink ref="B32" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021089136.1" xr:uid="{A01A2E2F-951B-3A42-9D48-38A5BEE78725}"/>
+    <hyperlink ref="B33" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021085151.1" xr:uid="{AAE77187-454E-F443-B346-C55F2776BED5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7980,10 +8833,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8312,17 +9165,77 @@
         <v>202</v>
       </c>
     </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001127300.1" xr:uid="{35B17FAA-79DF-604E-AE08-16FAB9C9BB89}"/>
+    <hyperlink ref="B29" r:id="rId2" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000020617;r=1:220862386-220867815;t=ENSRNOT00000028015" xr:uid="{86B9C693-0D36-4146-AB84-C73D6A5F96AA}"/>
+    <hyperlink ref="B30" r:id="rId3" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000009506;r=8:13305152-13352489;t=ENSRNOT00000012940" xr:uid="{2213E31F-699B-5B4D-A889-CA251B151BC6}"/>
+    <hyperlink ref="B31" r:id="rId4" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000033065;r=10:39001498-39054142;t=ENSRNOT00000063772" xr:uid="{D67F98FB-DC79-8745-8CF8-E9B7891BB4E1}"/>
+    <hyperlink ref="B32" r:id="rId5" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000008580;r=5:29622281-29656864;t=ENSRNOT00000012377" xr:uid="{3C73B701-524B-5C4E-8DC1-6A26C609CC2C}"/>
+    <hyperlink ref="B33" r:id="rId6" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000060520;r=5:76240167-76261198;t=ENSRNOT00000087380" xr:uid="{61F9F63F-437B-214E-9FAD-1A785EF89BEF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10105,9 +11018,324 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="E28"/>
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>1026</v>
+      </c>
       <c r="N28" t="s">
         <v>684</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>995</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="T30" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -10329,6 +11557,102 @@
     <hyperlink ref="J22" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
     <hyperlink ref="N2" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
     <hyperlink ref="E4" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="B28" r:id="rId218" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008159532.1" xr:uid="{D7CEADEF-C989-A44D-8B34-AACCDCF73177}"/>
+    <hyperlink ref="B29" r:id="rId219" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008146941.1" xr:uid="{FD2E3501-AAC7-AF40-BDD0-3B32902A6462}"/>
+    <hyperlink ref="B30" r:id="rId220" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008149225.1" xr:uid="{C8D5707F-A6B7-5F42-A37F-E392603BF24A}"/>
+    <hyperlink ref="B31" r:id="rId221" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008142454.1" xr:uid="{4A76AF29-28C2-A24D-AC15-7F036B5EAC7C}"/>
+    <hyperlink ref="B32" r:id="rId222" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008158869.1" xr:uid="{2B17D951-1BBE-6240-B1C4-EC68DD9B36E5}"/>
+    <hyperlink ref="B33" r:id="rId223" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008141800.1" xr:uid="{4B61BA1E-8B31-D445-92EF-E2E1307C1C50}"/>
+    <hyperlink ref="C28" r:id="rId224" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003809952.3" xr:uid="{D47D5C10-C7A8-3344-965F-AA5B2FBE6249}"/>
+    <hyperlink ref="C29" r:id="rId225" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008954083.1" xr:uid="{A946C99A-3565-674E-99A6-756A120C3BE0}"/>
+    <hyperlink ref="C30" r:id="rId226" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008966413.1" xr:uid="{CB1F0232-225E-9B4D-9861-0EF2C232E9C3}"/>
+    <hyperlink ref="C31" r:id="rId227" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003829302.3" xr:uid="{046093D2-C641-8845-A256-35E6DBDA3731}"/>
+    <hyperlink ref="C32" r:id="rId228" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003821145.4" xr:uid="{33D91A3B-4C2F-F340-9628-82BCF0909CD1}"/>
+    <hyperlink ref="C33" r:id="rId229" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008963253.2" xr:uid="{5501FB6D-5F53-3248-9F69-ACE020B10AAD}"/>
+    <hyperlink ref="E28" r:id="rId230" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016944629.2" xr:uid="{D1DFB061-28CD-2C44-B4F8-FEBF6A7119B3}"/>
+    <hyperlink ref="E29" r:id="rId231" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016919866.2" xr:uid="{10873BA8-F27E-C041-BCBD-D6AAEB0BBA4C}"/>
+    <hyperlink ref="E30" r:id="rId232" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016921830.2" xr:uid="{F5BB1C68-ED09-9149-80AE-8007F3B1F532}"/>
+    <hyperlink ref="E31" r:id="rId233" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001163412.6" xr:uid="{41B8C23E-E9F2-324B-B717-062754DF192C}"/>
+    <hyperlink ref="E32" r:id="rId234" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016959657.1" xr:uid="{DFD37102-77A4-F441-9659-80A345DB7657}"/>
+    <hyperlink ref="E33" r:id="rId235" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016961425.1" xr:uid="{15432E6B-119A-C343-AB51-A626B611B438}"/>
+    <hyperlink ref="F28" r:id="rId236" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005227647.4" xr:uid="{514C9B78-8448-114F-B1B6-E96EE8D38E12}"/>
+    <hyperlink ref="F30" r:id="rId237" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001192605.1" xr:uid="{2F1CF815-1FE9-DB45-A7D7-E8C4CB7D2FEB}"/>
+    <hyperlink ref="F31" r:id="rId238" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001206868.1" xr:uid="{A9DC4ED4-D112-5444-823E-F29D82906F82}"/>
+    <hyperlink ref="F32" r:id="rId239" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001075837.2" xr:uid="{6884B4D3-0162-A442-856D-A58A71F87171}"/>
+    <hyperlink ref="F33" r:id="rId240" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015472683.2" xr:uid="{9BF8BB2F-6A59-4C47-A63D-19EEB957A66E}"/>
+    <hyperlink ref="F29" r:id="rId241" display="http://useast.ensembl.org/Bos_taurus/Transcript/Summary?db=core;g=ENSBTAG00000021456;r=29:44644885-44650618;t=ENSBTAT00000053203" xr:uid="{6081C123-90FB-8748-A4F2-D1EDF517E1B1}"/>
+    <hyperlink ref="G28" r:id="rId242" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_850374.6" xr:uid="{E6E4DAE7-FCE6-8347-9846-3E406689AD9C}"/>
+    <hyperlink ref="G29" r:id="rId243" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022405636.1" xr:uid="{F6429ECC-635F-8D4E-9BCA-ABF9D2F953E1}"/>
+    <hyperlink ref="G30" r:id="rId244" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005633352.2" xr:uid="{B3690D00-692C-A147-8F52-73F9569C235E}"/>
+    <hyperlink ref="G31" r:id="rId245" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022425268.1" xr:uid="{8E6CC29F-C72A-AF44-B546-777E3F4E6329}"/>
+    <hyperlink ref="G32" r:id="rId246" display="http://useast.ensembl.org/Canis_familiaris/Transcript/Summary?db=core;g=ENSCAFG00000008992;r=29:35416246-35477454;t=ENSCAFT00000014292" xr:uid="{C8E25007-86A2-D84C-9781-C53D800CF09C}"/>
+    <hyperlink ref="G33" r:id="rId247" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014117920.2" xr:uid="{DE01DD89-B598-F94C-A1FB-413B53692D06}"/>
+    <hyperlink ref="H28" r:id="rId248" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004065160.2" xr:uid="{39821BAC-E729-1047-BCB5-ADCBAC676978}"/>
+    <hyperlink ref="H29" r:id="rId249" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019036094.1" xr:uid="{7867300D-28B7-BA45-B566-6731F5150266}"/>
+    <hyperlink ref="H30" r:id="rId250" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019037427.1" xr:uid="{9162B635-EA57-D941-BCCC-299AFF65E257}"/>
+    <hyperlink ref="H31" r:id="rId251" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004042473.2" xr:uid="{9019C2DD-F1D1-BA43-94A8-9BDE64D37282}"/>
+    <hyperlink ref="H32" r:id="rId252" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019032379.1" xr:uid="{0917D8EE-CC26-8545-9CC1-31470373506D}"/>
+    <hyperlink ref="H33" r:id="rId253" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019033001.1" xr:uid="{883BF890-C552-B44D-B8D0-822099FB2219}"/>
+    <hyperlink ref="I28" r:id="rId254" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003365914.4" xr:uid="{4C9FE331-975F-C44D-9CC7-5BA09E2CA6DE}"/>
+    <hyperlink ref="I29" r:id="rId255" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001494546.4" xr:uid="{C85EBD3E-0E02-F845-96E4-34F74249E8B3}"/>
+    <hyperlink ref="I30" r:id="rId256" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001498350.6" xr:uid="{A93C8E76-4204-814F-8337-5F0055BDD63E}"/>
+    <hyperlink ref="I31" r:id="rId257" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001504442.6" xr:uid="{21A0E793-546A-674C-A65E-3CF9DBC5CB19}"/>
+    <hyperlink ref="I32" r:id="rId258" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014728036.2" xr:uid="{65435F9B-386F-6A4A-8292-C04563470522}"/>
+    <hyperlink ref="I33" r:id="rId259" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_023628652.1" xr:uid="{12B61A15-2521-E54A-89FD-9EF2C9B465C2}"/>
+    <hyperlink ref="J28" r:id="rId260" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000185515;r=X:155071420-155123074;t=ENST00000369462" xr:uid="{72F41FB8-6F99-F544-9DD5-8DB4907E6CE7}"/>
+    <hyperlink ref="J29" r:id="rId261" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000172732;r=11:65857126-65867653;t=ENST00000308110" xr:uid="{B5B1113A-8D01-9A48-90A6-EE4478A0DA01}"/>
+    <hyperlink ref="J30" r:id="rId262" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000020922;r=11:94415578-94493908;t=ENST00000323929" xr:uid="{1F8E3165-BEF7-5447-8685-9D379C34E87E}"/>
+    <hyperlink ref="J31" r:id="rId263" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000113522;r=5:132556019-132646344;t=ENST00000378823" xr:uid="{5CD74917-B9BE-9D40-83D7-6906DC4BBE07}"/>
+    <hyperlink ref="J32" r:id="rId264" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000104320;r=8:89933336-90003228;t=ENST00000265433" xr:uid="{0BFC1B65-7B21-4E4F-A3E8-80B1D4CCC5CD}"/>
+    <hyperlink ref="J33" r:id="rId265" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000165181;r=9:111686173-111795008;t=ENST00000318737" xr:uid="{014B5093-F14C-224F-8FBF-F43E938BA94F}"/>
+    <hyperlink ref="K28" r:id="rId266" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001097957.3" xr:uid="{7C56E27F-676E-8147-AFC7-8E3B5C927E24}"/>
+    <hyperlink ref="K29" r:id="rId267" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015113669.1" xr:uid="{E9C894E0-B630-1647-AD9F-E724F52E4773}"/>
+    <hyperlink ref="K30" r:id="rId268" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015115484.1" xr:uid="{65436902-35C5-3542-83C2-FF7979CFC654}"/>
+    <hyperlink ref="K31" r:id="rId269" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015140734.1" xr:uid="{B7A87807-035A-FB43-AC29-7957480CABAA}"/>
+    <hyperlink ref="K32" r:id="rId270" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001265739.1" xr:uid="{5B0C340A-525D-E442-A7AA-1883ECCE7C11}"/>
+    <hyperlink ref="K33" r:id="rId271" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001194305.2" xr:uid="{0413ACC2-59A5-624A-A30A-7C8EB1E9FD85}"/>
+    <hyperlink ref="L28" r:id="rId272" display="http://useast.ensembl.org/Callithrix_jacchus/Transcript/Summary?db=core;g=ENSCJAG00000004308;r=NTIC01017779.1:666760-741086;t=ENSCJAT00000008283" xr:uid="{B728F6A1-FAB0-BD43-B2A7-02F3486E83D6}"/>
+    <hyperlink ref="L29" r:id="rId273" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017978286.1" xr:uid="{8B8270ED-D3D0-6146-A45B-AECCF47C92A8}"/>
+    <hyperlink ref="L30" r:id="rId274" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002754671.4" xr:uid="{1D8024EC-89C1-EA46-B9D9-AC32489EBD25}"/>
+    <hyperlink ref="L31" r:id="rId275" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017965277.1" xr:uid="{ACBD279B-77EF-CD48-83FD-F50EF5C7EE05}"/>
+    <hyperlink ref="L32" r:id="rId276" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003734968.3" xr:uid="{F901E58F-3022-EC4E-8E92-33BFFFFC01EA}"/>
+    <hyperlink ref="L33" r:id="rId277" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_009001231.2" xr:uid="{F4C579C9-DA72-B04E-87DB-6D9C6E3AD43B}"/>
+    <hyperlink ref="M28" r:id="rId278" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031201;r=X:75416628-75454001;t=ENSMUST00000033544" xr:uid="{6F2C9EC2-EC4E-1242-A0E2-5665E3CBED22}"/>
+    <hyperlink ref="M29" r:id="rId279" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000024906;r=19:5482345-5488402;t=ENSMUST00000124334" xr:uid="{BC0BE6E9-3F15-B84E-B4F1-A4845E403369}"/>
+    <hyperlink ref="M30" r:id="rId280" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031928;r=9:14784654-14837123;t=ENSMUST00000034405" xr:uid="{4C9CEA63-0A74-E245-BD94-D6B280587EC9}"/>
+    <hyperlink ref="M31" r:id="rId281" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000020380;r=11:53649519-53707319;t=ENSMUST00000020649" xr:uid="{7B597D37-ACBE-6C40-B34F-D40FD09634FB}"/>
+    <hyperlink ref="M32" r:id="rId282" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000028224;r=4:15957925-15992589;t=ENSMUST00000029879" xr:uid="{7A740273-3C8D-4E48-A20A-834CB7C49AFD}"/>
+    <hyperlink ref="M33" r:id="rId283" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000038598;r=4:59043753-59138983;t=ENSMUST00000107547" xr:uid="{95E62931-1C92-CC45-A2C9-FA66EED61D12}"/>
+    <hyperlink ref="O28" r:id="rId284" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001132435.1" xr:uid="{B3961AE5-A341-7240-8B36-841779A6DE40}"/>
+    <hyperlink ref="O29" r:id="rId285" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024254918.1" xr:uid="{A876481E-20AA-254E-BA85-859E5E2D7707}"/>
+    <hyperlink ref="O30" r:id="rId286" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024255393.1" xr:uid="{EB05D9A5-2F5F-6D41-AE0B-0DFFDE9D160F}"/>
+    <hyperlink ref="O31" r:id="rId287" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002815863.3" xr:uid="{95BD49DD-D95F-A241-A8D5-11C93D26BDE5}"/>
+    <hyperlink ref="O32" r:id="rId288" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001131728.1" xr:uid="{42EB3DCC-4B93-D04F-AC86-9B996B592983}"/>
+    <hyperlink ref="O33" r:id="rId289" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024252094.1" xr:uid="{7026020F-A72C-5D40-8841-1DA16F95488C}"/>
+    <hyperlink ref="P28" r:id="rId290" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001243023.1" xr:uid="{B01BCC44-723B-8B47-91B3-EF6B719393B8}"/>
+    <hyperlink ref="P29" r:id="rId291" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003122526.5" xr:uid="{85F1739D-5EA6-2449-8BE6-645961A30FA9}"/>
+    <hyperlink ref="P30" r:id="rId292" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003129788.5" xr:uid="{9FF26DDC-7272-644F-8C34-99EF11D72854}"/>
+    <hyperlink ref="P31" r:id="rId293" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003354274.4" xr:uid="{815D9B47-E0C9-FC40-BD59-F9FC2772FC42}"/>
+    <hyperlink ref="P32" r:id="rId294" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021089136.1" xr:uid="{FF8C19C3-95FB-FC49-81B6-E2571B9A94F3}"/>
+    <hyperlink ref="P33" r:id="rId295" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021085151.1" xr:uid="{F02CFCFB-A453-1542-9881-4E710CF9A5CE}"/>
+    <hyperlink ref="S28" r:id="rId296" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001127300.1" xr:uid="{771477E1-FAED-2542-8E3C-1AB9CB6C4F4A}"/>
+    <hyperlink ref="S29" r:id="rId297" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000020617;r=1:220862386-220867815;t=ENSRNOT00000028015" xr:uid="{830A0A5C-035B-D145-A7FB-2C6AC2A75CCE}"/>
+    <hyperlink ref="S30" r:id="rId298" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000009506;r=8:13305152-13352489;t=ENSRNOT00000012940" xr:uid="{8A69B1E9-D32B-7446-AE65-A83F6FC5F8B9}"/>
+    <hyperlink ref="S31" r:id="rId299" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000033065;r=10:39001498-39054142;t=ENSRNOT00000063772" xr:uid="{2C823A7A-18DE-E74C-9E93-D0C2380E57BB}"/>
+    <hyperlink ref="S32" r:id="rId300" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000008580;r=5:29622281-29656864;t=ENSRNOT00000012377" xr:uid="{A9EE7728-C42A-A546-8510-97D9454C98BE}"/>
+    <hyperlink ref="S33" r:id="rId301" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000060520;r=5:76240167-76261198;t=ENSRNOT00000087380" xr:uid="{17BA6DDD-7E32-C14E-9D22-1A5BC3F3E102}"/>
+    <hyperlink ref="U28" r:id="rId302" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006171070.2" xr:uid="{A086A99D-4EFF-5E41-8A44-6CB8D541B03F}"/>
+    <hyperlink ref="U29" r:id="rId303" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006149911.2" xr:uid="{B6F874C7-8EA5-CF4C-B87D-2080EC4261E1}"/>
+    <hyperlink ref="U30" r:id="rId304" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014593321.1" xr:uid="{CBDE80B1-2889-2E41-A3AB-A462BB0529A2}"/>
+    <hyperlink ref="U31" r:id="rId305" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014583584.1" xr:uid="{524092C8-C138-F94C-97A5-49284383407B}"/>
+    <hyperlink ref="U32" r:id="rId306" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006157551.2" xr:uid="{5E300699-81BB-DC4B-B4EF-9521E452CBBC}"/>
+    <hyperlink ref="U33" r:id="rId307" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006142736.1" xr:uid="{D8EAF2A7-CBF3-A248-8736-1C73E6D5A6E6}"/>
+    <hyperlink ref="T28" r:id="rId308" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015104955.1" xr:uid="{65F5D11A-6E03-A342-9D58-12D5D46476EC}"/>
+    <hyperlink ref="T29" r:id="rId309" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004019678.3" xr:uid="{0E180717-C4FA-C144-B63E-35DDBB2115F5}"/>
+    <hyperlink ref="T30" r:id="rId310" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012095281.1" xr:uid="{59B5209D-9DC1-1243-A440-EF14CC67C635}"/>
+    <hyperlink ref="T31" r:id="rId311" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004008637.3" xr:uid="{1BDD0F95-0300-7446-8D64-C75FA223F372}"/>
+    <hyperlink ref="T32" r:id="rId312" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004011849.2" xr:uid="{621D08D1-6ECE-3B4D-8CA1-7597DD961EAE}"/>
+    <hyperlink ref="T33" r:id="rId313" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012153904.2" xr:uid="{6F375C08-5884-E845-8D96-E9B47893AFEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10336,10 +11660,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B33" sqref="B28:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10638,17 +11962,76 @@
         <v>834</v>
       </c>
     </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1063</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006171070.2" xr:uid="{1AF71C74-BB6E-384E-812B-AFBDB193640C}"/>
+    <hyperlink ref="B29" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006149911.2" xr:uid="{3678BE41-5A9F-0848-8E17-D49465A1A2BC}"/>
+    <hyperlink ref="B30" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014593321.1" xr:uid="{28E96916-F263-A640-A4CC-A67C34BAC1DC}"/>
+    <hyperlink ref="B31" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014583584.1" xr:uid="{45BB2B8E-5A8A-6B49-885B-01DFD8CFAD6F}"/>
+    <hyperlink ref="B32" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006157551.2" xr:uid="{DF1BE172-B620-F54E-9A98-11411971A87B}"/>
+    <hyperlink ref="B33" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006142736.1" xr:uid="{8D4A2BF1-E7E5-3F45-9D55-7A022CDCD920}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B2:B28"/>
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B33" sqref="B28:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10822,7 +12205,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -10830,7 +12213,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -10838,7 +12221,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -10849,7 +12232,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -10863,7 +12246,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -10874,7 +12257,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -10885,7 +12268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -10896,7 +12279,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -10904,7 +12287,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -10915,7 +12298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -10926,7 +12309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -10934,7 +12317,76 @@
         <v>933</v>
       </c>
     </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1071</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015104955.1" xr:uid="{DB2EA5A4-F0A8-D34A-B9A4-699EBD446EFD}"/>
+    <hyperlink ref="B29" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004019678.3" xr:uid="{DBF6C64B-D52E-C045-807B-D1B29C27A5EF}"/>
+    <hyperlink ref="I29" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012102142.2" xr:uid="{469121DD-7FDA-5645-9A73-FCDF4FAA4398}"/>
+    <hyperlink ref="B30" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012095281.1" xr:uid="{DB9A0969-654E-B84E-961F-60167DCBC98B}"/>
+    <hyperlink ref="B31" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004008637.3" xr:uid="{838DA9D1-A6BE-9D45-BEDB-4C701A600BC4}"/>
+    <hyperlink ref="B32" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004011849.2" xr:uid="{8A3439C2-8ECC-DC44-9386-78D8E8E13A90}"/>
+    <hyperlink ref="B33" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012153904.2" xr:uid="{588C84E3-E3F3-094A-A3D5-F34E18B8DE7B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11382,10 +12834,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showRuler="0" topLeftCell="A5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11694,6 +13146,72 @@
       </c>
       <c r="B27" s="10" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="D28" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="D29" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="D30" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="D32" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="D33" t="s">
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -11727,6 +13245,12 @@
     <hyperlink ref="F20" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
     <hyperlink ref="B15" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
     <hyperlink ref="B3" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="B28" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008159532.1" xr:uid="{FC4C283D-145F-2C4F-89DA-6DEC03600E17}"/>
+    <hyperlink ref="B29" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008146941.1" xr:uid="{FC5027D2-B85E-7144-AD7D-0B97ACA1F7C5}"/>
+    <hyperlink ref="B30" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008149225.1" xr:uid="{6AAE6385-3CD0-3D41-9348-C6796CEE2E5C}"/>
+    <hyperlink ref="B31" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008142454.1" xr:uid="{D01D9604-A18A-0B4B-8EB3-4136A105B324}"/>
+    <hyperlink ref="B32" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008158869.1" xr:uid="{D4473808-BB92-7C4A-ABA5-9EC5EE2FDED8}"/>
+    <hyperlink ref="B33" r:id="rId35" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008141800.1" xr:uid="{AF2B0C5E-B9D0-404D-861B-49F4FF5E7796}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11734,10 +13258,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showRuler="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11907,7 +13431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -11918,7 +13442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -11929,7 +13453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -11943,7 +13467,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -11954,7 +13478,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -11968,7 +13492,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -11976,7 +13500,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -11984,7 +13508,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -11992,7 +13516,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -12003,7 +13527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -12011,7 +13535,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -12023,6 +13547,78 @@
       </c>
       <c r="F27" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="C28" t="s">
+        <v>955</v>
+      </c>
+      <c r="D28" t="s">
+        <v>956</v>
+      </c>
+      <c r="F28" t="s">
+        <v>957</v>
+      </c>
+      <c r="G28" t="s">
+        <v>958</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="G29" t="s">
+        <v>958</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="F32" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -12053,6 +13649,14 @@
     <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
     <hyperlink ref="B20" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
     <hyperlink ref="B18" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003809952.3" xr:uid="{961E9249-34FD-0443-9E7B-9B8FDA612484}"/>
+    <hyperlink ref="H28" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008962328.2" xr:uid="{C92989A3-DD47-CB48-9A93-9D291135EE32}"/>
+    <hyperlink ref="B29" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008954083.1" xr:uid="{1AB1A29B-C666-274E-839C-B983E72D4F41}"/>
+    <hyperlink ref="H29" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003828642.2" xr:uid="{55B0C9D1-5FF3-D44E-86FC-E31F6FB9B006}"/>
+    <hyperlink ref="B30" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008966413.1" xr:uid="{4D85207F-E764-5244-B540-770C7910D4AA}"/>
+    <hyperlink ref="B31" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003829302.3" xr:uid="{34DB0AED-F76A-2E49-B343-FCB0ED8A7F4A}"/>
+    <hyperlink ref="B32" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003821145.4" xr:uid="{4E6997B2-3E6E-0241-B79A-E9E416583A31}"/>
+    <hyperlink ref="B33" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008963253.2" xr:uid="{A004191E-5B66-E641-B472-1D84D96BD127}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12062,7 +13666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -12323,10 +13927,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showRuler="0" topLeftCell="A22" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12605,17 +14209,87 @@
         <v>933</v>
       </c>
     </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="D28" t="s">
+        <v>971</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="D29" t="s">
+        <v>971</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>978</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016944629.2" xr:uid="{DCBACB64-86E6-534A-8E95-5AF005D2EC6F}"/>
+    <hyperlink ref="E28" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_521347.6" xr:uid="{FE74C019-7A93-1147-AA09-5BFA4D2C3B86}"/>
+    <hyperlink ref="B29" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016919866.2" xr:uid="{5B4F17B8-D10A-C94A-B207-BC51BF152003}"/>
+    <hyperlink ref="E29" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001280496.1" xr:uid="{8796F649-E576-3744-8C2A-B5E6D5F0CEB1}"/>
+    <hyperlink ref="B30" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016921830.2" xr:uid="{CD1D1B15-F2F1-044C-AC77-A97452A4B2B8}"/>
+    <hyperlink ref="B31" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001163412.6" xr:uid="{6AF3F637-16C5-A648-852D-80DF6BE33B4E}"/>
+    <hyperlink ref="B32" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016959657.1" xr:uid="{1C7AC630-CCD5-414A-8DC1-EFE63B5B2FF3}"/>
+    <hyperlink ref="B33" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016961425.1" xr:uid="{7E1C2D4E-5D24-AF48-850C-70F41C2CDA6B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12919,17 +14593,82 @@
         <v>908</v>
       </c>
     </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="C29">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>982</v>
+      </c>
+      <c r="F32" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>984</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005227647.4" xr:uid="{F86FA699-7911-9F45-BC81-B762DBE85B63}"/>
+    <hyperlink ref="B30" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001192605.1" xr:uid="{7C20A58E-FDC2-DD40-8FF1-5F9BE6EEDA1F}"/>
+    <hyperlink ref="B31" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001206868.1" xr:uid="{E88CEA9C-9F29-0945-A83C-3C2EE8B6C96D}"/>
+    <hyperlink ref="B32" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001075837.2" xr:uid="{FA6137E6-0124-3940-9A36-120479C9810C}"/>
+    <hyperlink ref="B33" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015472683.2" xr:uid="{40CB11F6-EE0E-804B-990D-1D931778F2E7}"/>
+    <hyperlink ref="B29" r:id="rId6" display="http://useast.ensembl.org/Bos_taurus/Transcript/Summary?db=core;g=ENSBTAG00000021456;r=29:44644885-44650618;t=ENSBTAT00000053203" xr:uid="{0479C235-9AC5-0B4A-9FC4-C27608F4DF6B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="106" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showRuler="0" topLeftCell="A20" zoomScale="106" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13310,6 +15049,57 @@
       </c>
       <c r="G27" s="10" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="G32" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -13350,6 +15140,12 @@
     <hyperlink ref="G26" r:id="rId34" xr:uid="{00000000-0004-0000-0700-000021000000}"/>
     <hyperlink ref="G25" r:id="rId35" xr:uid="{00000000-0004-0000-0700-000022000000}"/>
     <hyperlink ref="G27" r:id="rId36" xr:uid="{00000000-0004-0000-0700-000023000000}"/>
+    <hyperlink ref="B28" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_850374.6" xr:uid="{F8AB1DCE-FE1C-A244-898A-FFE725A2F5FB}"/>
+    <hyperlink ref="B29" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022405636.1" xr:uid="{BDF2BDAA-A36B-574C-B4CE-680E9627DCAE}"/>
+    <hyperlink ref="B30" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005633352.2" xr:uid="{61D1D235-E2A5-A348-BA76-5F5ED90CC40B}"/>
+    <hyperlink ref="B31" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022425268.1" xr:uid="{5F0ACD2D-68A8-6941-9D93-28AA19C6082F}"/>
+    <hyperlink ref="B32" r:id="rId41" display="http://useast.ensembl.org/Canis_familiaris/Transcript/Summary?db=core;g=ENSCAFG00000008992;r=29:35416246-35477454;t=ENSCAFT00000014292" xr:uid="{2A6C8CFF-59A8-0E47-9788-64A6D17F7715}"/>
+    <hyperlink ref="B33" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014117920.2" xr:uid="{0A658483-B8A3-F949-B71A-45B8345C6A56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13357,10 +15153,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B3:B28"/>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13749,6 +15545,60 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="F29" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13788,6 +15638,12 @@
     <hyperlink ref="B25" r:id="rId34" xr:uid="{00000000-0004-0000-0800-000021000000}"/>
     <hyperlink ref="B20" r:id="rId35" xr:uid="{00000000-0004-0000-0800-000022000000}"/>
     <hyperlink ref="B18" r:id="rId36" xr:uid="{00000000-0004-0000-0800-000023000000}"/>
+    <hyperlink ref="B28" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004065160.2" xr:uid="{B7182BD2-7FF8-E048-B56A-E5FE8987A2E1}"/>
+    <hyperlink ref="B29" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019036094.1" xr:uid="{67006BA7-051B-B445-B604-81D5BCDF3170}"/>
+    <hyperlink ref="B30" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019037427.1" xr:uid="{209C7DBC-78FB-EF4E-948E-FB31CA9A7671}"/>
+    <hyperlink ref="B31" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004042473.2" xr:uid="{486AA687-6A3A-4C42-A856-BDF1114A7C55}"/>
+    <hyperlink ref="B32" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019032379.1" xr:uid="{FF9F078B-4F69-674C-9DFC-885AA8601C1E}"/>
+    <hyperlink ref="B33" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019033001.1" xr:uid="{376E87C5-7F17-F645-ADA5-EDF8B6DB1804}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Isoform_ID/expression_samples_list.xlsx
+++ b/Isoform_ID/expression_samples_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amydapper/Desktop/Evo_RecGenes_MS/Isoform_ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC604285-2DAE-5645-B32B-BDA7A961227A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F739D7-D5CD-FD41-8CC0-1615E5942F50}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="13420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15920" yWindow="460" windowWidth="25600" windowHeight="13420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF" sheetId="2" r:id="rId1"/>
@@ -9233,9 +9233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F28:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11558,101 +11558,101 @@
     <hyperlink ref="N2" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
     <hyperlink ref="E4" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
     <hyperlink ref="B28" r:id="rId218" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008159532.1" xr:uid="{D7CEADEF-C989-A44D-8B34-AACCDCF73177}"/>
-    <hyperlink ref="B29" r:id="rId219" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008146941.1" xr:uid="{FD2E3501-AAC7-AF40-BDD0-3B32902A6462}"/>
-    <hyperlink ref="B30" r:id="rId220" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008149225.1" xr:uid="{C8D5707F-A6B7-5F42-A37F-E392603BF24A}"/>
-    <hyperlink ref="B31" r:id="rId221" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008142454.1" xr:uid="{4A76AF29-28C2-A24D-AC15-7F036B5EAC7C}"/>
-    <hyperlink ref="B32" r:id="rId222" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008158869.1" xr:uid="{2B17D951-1BBE-6240-B1C4-EC68DD9B36E5}"/>
-    <hyperlink ref="B33" r:id="rId223" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008141800.1" xr:uid="{4B61BA1E-8B31-D445-92EF-E2E1307C1C50}"/>
-    <hyperlink ref="C28" r:id="rId224" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003809952.3" xr:uid="{D47D5C10-C7A8-3344-965F-AA5B2FBE6249}"/>
-    <hyperlink ref="C29" r:id="rId225" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008954083.1" xr:uid="{A946C99A-3565-674E-99A6-756A120C3BE0}"/>
-    <hyperlink ref="C30" r:id="rId226" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008966413.1" xr:uid="{CB1F0232-225E-9B4D-9861-0EF2C232E9C3}"/>
-    <hyperlink ref="C31" r:id="rId227" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003829302.3" xr:uid="{046093D2-C641-8845-A256-35E6DBDA3731}"/>
-    <hyperlink ref="C32" r:id="rId228" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003821145.4" xr:uid="{33D91A3B-4C2F-F340-9628-82BCF0909CD1}"/>
-    <hyperlink ref="C33" r:id="rId229" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008963253.2" xr:uid="{5501FB6D-5F53-3248-9F69-ACE020B10AAD}"/>
-    <hyperlink ref="E28" r:id="rId230" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016944629.2" xr:uid="{D1DFB061-28CD-2C44-B4F8-FEBF6A7119B3}"/>
-    <hyperlink ref="E29" r:id="rId231" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016919866.2" xr:uid="{10873BA8-F27E-C041-BCBD-D6AAEB0BBA4C}"/>
-    <hyperlink ref="E30" r:id="rId232" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016921830.2" xr:uid="{F5BB1C68-ED09-9149-80AE-8007F3B1F532}"/>
-    <hyperlink ref="E31" r:id="rId233" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001163412.6" xr:uid="{41B8C23E-E9F2-324B-B717-062754DF192C}"/>
-    <hyperlink ref="E32" r:id="rId234" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016959657.1" xr:uid="{DFD37102-77A4-F441-9659-80A345DB7657}"/>
-    <hyperlink ref="E33" r:id="rId235" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016961425.1" xr:uid="{15432E6B-119A-C343-AB51-A626B611B438}"/>
-    <hyperlink ref="F28" r:id="rId236" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005227647.4" xr:uid="{514C9B78-8448-114F-B1B6-E96EE8D38E12}"/>
-    <hyperlink ref="F30" r:id="rId237" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001192605.1" xr:uid="{2F1CF815-1FE9-DB45-A7D7-E8C4CB7D2FEB}"/>
-    <hyperlink ref="F31" r:id="rId238" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001206868.1" xr:uid="{A9DC4ED4-D112-5444-823E-F29D82906F82}"/>
-    <hyperlink ref="F32" r:id="rId239" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001075837.2" xr:uid="{6884B4D3-0162-A442-856D-A58A71F87171}"/>
-    <hyperlink ref="F33" r:id="rId240" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015472683.2" xr:uid="{9BF8BB2F-6A59-4C47-A63D-19EEB957A66E}"/>
-    <hyperlink ref="F29" r:id="rId241" display="http://useast.ensembl.org/Bos_taurus/Transcript/Summary?db=core;g=ENSBTAG00000021456;r=29:44644885-44650618;t=ENSBTAT00000053203" xr:uid="{6081C123-90FB-8748-A4F2-D1EDF517E1B1}"/>
-    <hyperlink ref="G28" r:id="rId242" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_850374.6" xr:uid="{E6E4DAE7-FCE6-8347-9846-3E406689AD9C}"/>
-    <hyperlink ref="G29" r:id="rId243" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022405636.1" xr:uid="{F6429ECC-635F-8D4E-9BCA-ABF9D2F953E1}"/>
-    <hyperlink ref="G30" r:id="rId244" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005633352.2" xr:uid="{B3690D00-692C-A147-8F52-73F9569C235E}"/>
-    <hyperlink ref="G31" r:id="rId245" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022425268.1" xr:uid="{8E6CC29F-C72A-AF44-B546-777E3F4E6329}"/>
-    <hyperlink ref="G32" r:id="rId246" display="http://useast.ensembl.org/Canis_familiaris/Transcript/Summary?db=core;g=ENSCAFG00000008992;r=29:35416246-35477454;t=ENSCAFT00000014292" xr:uid="{C8E25007-86A2-D84C-9781-C53D800CF09C}"/>
-    <hyperlink ref="G33" r:id="rId247" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014117920.2" xr:uid="{DE01DD89-B598-F94C-A1FB-413B53692D06}"/>
-    <hyperlink ref="H28" r:id="rId248" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004065160.2" xr:uid="{39821BAC-E729-1047-BCB5-ADCBAC676978}"/>
-    <hyperlink ref="H29" r:id="rId249" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019036094.1" xr:uid="{7867300D-28B7-BA45-B566-6731F5150266}"/>
-    <hyperlink ref="H30" r:id="rId250" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019037427.1" xr:uid="{9162B635-EA57-D941-BCCC-299AFF65E257}"/>
-    <hyperlink ref="H31" r:id="rId251" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004042473.2" xr:uid="{9019C2DD-F1D1-BA43-94A8-9BDE64D37282}"/>
-    <hyperlink ref="H32" r:id="rId252" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019032379.1" xr:uid="{0917D8EE-CC26-8545-9CC1-31470373506D}"/>
-    <hyperlink ref="H33" r:id="rId253" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019033001.1" xr:uid="{883BF890-C552-B44D-B8D0-822099FB2219}"/>
-    <hyperlink ref="I28" r:id="rId254" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003365914.4" xr:uid="{4C9FE331-975F-C44D-9CC7-5BA09E2CA6DE}"/>
-    <hyperlink ref="I29" r:id="rId255" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001494546.4" xr:uid="{C85EBD3E-0E02-F845-96E4-34F74249E8B3}"/>
-    <hyperlink ref="I30" r:id="rId256" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001498350.6" xr:uid="{A93C8E76-4204-814F-8337-5F0055BDD63E}"/>
-    <hyperlink ref="I31" r:id="rId257" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001504442.6" xr:uid="{21A0E793-546A-674C-A65E-3CF9DBC5CB19}"/>
-    <hyperlink ref="I32" r:id="rId258" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014728036.2" xr:uid="{65435F9B-386F-6A4A-8292-C04563470522}"/>
-    <hyperlink ref="I33" r:id="rId259" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_023628652.1" xr:uid="{12B61A15-2521-E54A-89FD-9EF2C9B465C2}"/>
-    <hyperlink ref="J28" r:id="rId260" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000185515;r=X:155071420-155123074;t=ENST00000369462" xr:uid="{72F41FB8-6F99-F544-9DD5-8DB4907E6CE7}"/>
-    <hyperlink ref="J29" r:id="rId261" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000172732;r=11:65857126-65867653;t=ENST00000308110" xr:uid="{B5B1113A-8D01-9A48-90A6-EE4478A0DA01}"/>
-    <hyperlink ref="J30" r:id="rId262" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000020922;r=11:94415578-94493908;t=ENST00000323929" xr:uid="{1F8E3165-BEF7-5447-8685-9D379C34E87E}"/>
-    <hyperlink ref="J31" r:id="rId263" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000113522;r=5:132556019-132646344;t=ENST00000378823" xr:uid="{5CD74917-B9BE-9D40-83D7-6906DC4BBE07}"/>
-    <hyperlink ref="J32" r:id="rId264" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000104320;r=8:89933336-90003228;t=ENST00000265433" xr:uid="{0BFC1B65-7B21-4E4F-A3E8-80B1D4CCC5CD}"/>
-    <hyperlink ref="J33" r:id="rId265" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000165181;r=9:111686173-111795008;t=ENST00000318737" xr:uid="{014B5093-F14C-224F-8FBF-F43E938BA94F}"/>
-    <hyperlink ref="K28" r:id="rId266" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001097957.3" xr:uid="{7C56E27F-676E-8147-AFC7-8E3B5C927E24}"/>
-    <hyperlink ref="K29" r:id="rId267" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015113669.1" xr:uid="{E9C894E0-B630-1647-AD9F-E724F52E4773}"/>
-    <hyperlink ref="K30" r:id="rId268" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015115484.1" xr:uid="{65436902-35C5-3542-83C2-FF7979CFC654}"/>
-    <hyperlink ref="K31" r:id="rId269" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015140734.1" xr:uid="{B7A87807-035A-FB43-AC29-7957480CABAA}"/>
-    <hyperlink ref="K32" r:id="rId270" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001265739.1" xr:uid="{5B0C340A-525D-E442-A7AA-1883ECCE7C11}"/>
-    <hyperlink ref="K33" r:id="rId271" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001194305.2" xr:uid="{0413ACC2-59A5-624A-A30A-7C8EB1E9FD85}"/>
-    <hyperlink ref="L28" r:id="rId272" display="http://useast.ensembl.org/Callithrix_jacchus/Transcript/Summary?db=core;g=ENSCJAG00000004308;r=NTIC01017779.1:666760-741086;t=ENSCJAT00000008283" xr:uid="{B728F6A1-FAB0-BD43-B2A7-02F3486E83D6}"/>
-    <hyperlink ref="L29" r:id="rId273" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017978286.1" xr:uid="{8B8270ED-D3D0-6146-A45B-AECCF47C92A8}"/>
-    <hyperlink ref="L30" r:id="rId274" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002754671.4" xr:uid="{1D8024EC-89C1-EA46-B9D9-AC32489EBD25}"/>
-    <hyperlink ref="L31" r:id="rId275" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017965277.1" xr:uid="{ACBD279B-77EF-CD48-83FD-F50EF5C7EE05}"/>
-    <hyperlink ref="L32" r:id="rId276" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003734968.3" xr:uid="{F901E58F-3022-EC4E-8E92-33BFFFFC01EA}"/>
-    <hyperlink ref="L33" r:id="rId277" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_009001231.2" xr:uid="{F4C579C9-DA72-B04E-87DB-6D9C6E3AD43B}"/>
-    <hyperlink ref="M28" r:id="rId278" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031201;r=X:75416628-75454001;t=ENSMUST00000033544" xr:uid="{6F2C9EC2-EC4E-1242-A0E2-5665E3CBED22}"/>
-    <hyperlink ref="M29" r:id="rId279" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000024906;r=19:5482345-5488402;t=ENSMUST00000124334" xr:uid="{BC0BE6E9-3F15-B84E-B4F1-A4845E403369}"/>
-    <hyperlink ref="M30" r:id="rId280" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031928;r=9:14784654-14837123;t=ENSMUST00000034405" xr:uid="{4C9CEA63-0A74-E245-BD94-D6B280587EC9}"/>
-    <hyperlink ref="M31" r:id="rId281" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000020380;r=11:53649519-53707319;t=ENSMUST00000020649" xr:uid="{7B597D37-ACBE-6C40-B34F-D40FD09634FB}"/>
-    <hyperlink ref="M32" r:id="rId282" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000028224;r=4:15957925-15992589;t=ENSMUST00000029879" xr:uid="{7A740273-3C8D-4E48-A20A-834CB7C49AFD}"/>
-    <hyperlink ref="M33" r:id="rId283" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000038598;r=4:59043753-59138983;t=ENSMUST00000107547" xr:uid="{95E62931-1C92-CC45-A2C9-FA66EED61D12}"/>
-    <hyperlink ref="O28" r:id="rId284" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001132435.1" xr:uid="{B3961AE5-A341-7240-8B36-841779A6DE40}"/>
-    <hyperlink ref="O29" r:id="rId285" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024254918.1" xr:uid="{A876481E-20AA-254E-BA85-859E5E2D7707}"/>
-    <hyperlink ref="O30" r:id="rId286" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024255393.1" xr:uid="{EB05D9A5-2F5F-6D41-AE0B-0DFFDE9D160F}"/>
-    <hyperlink ref="O31" r:id="rId287" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002815863.3" xr:uid="{95BD49DD-D95F-A241-A8D5-11C93D26BDE5}"/>
-    <hyperlink ref="O32" r:id="rId288" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001131728.1" xr:uid="{42EB3DCC-4B93-D04F-AC86-9B996B592983}"/>
-    <hyperlink ref="O33" r:id="rId289" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024252094.1" xr:uid="{7026020F-A72C-5D40-8841-1DA16F95488C}"/>
-    <hyperlink ref="P28" r:id="rId290" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001243023.1" xr:uid="{B01BCC44-723B-8B47-91B3-EF6B719393B8}"/>
-    <hyperlink ref="P29" r:id="rId291" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003122526.5" xr:uid="{85F1739D-5EA6-2449-8BE6-645961A30FA9}"/>
-    <hyperlink ref="P30" r:id="rId292" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003129788.5" xr:uid="{9FF26DDC-7272-644F-8C34-99EF11D72854}"/>
-    <hyperlink ref="P31" r:id="rId293" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003354274.4" xr:uid="{815D9B47-E0C9-FC40-BD59-F9FC2772FC42}"/>
-    <hyperlink ref="P32" r:id="rId294" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021089136.1" xr:uid="{FF8C19C3-95FB-FC49-81B6-E2571B9A94F3}"/>
-    <hyperlink ref="P33" r:id="rId295" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021085151.1" xr:uid="{F02CFCFB-A453-1542-9881-4E710CF9A5CE}"/>
-    <hyperlink ref="S28" r:id="rId296" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001127300.1" xr:uid="{771477E1-FAED-2542-8E3C-1AB9CB6C4F4A}"/>
-    <hyperlink ref="S29" r:id="rId297" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000020617;r=1:220862386-220867815;t=ENSRNOT00000028015" xr:uid="{830A0A5C-035B-D145-A7FB-2C6AC2A75CCE}"/>
-    <hyperlink ref="S30" r:id="rId298" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000009506;r=8:13305152-13352489;t=ENSRNOT00000012940" xr:uid="{8A69B1E9-D32B-7446-AE65-A83F6FC5F8B9}"/>
-    <hyperlink ref="S31" r:id="rId299" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000033065;r=10:39001498-39054142;t=ENSRNOT00000063772" xr:uid="{2C823A7A-18DE-E74C-9E93-D0C2380E57BB}"/>
-    <hyperlink ref="S32" r:id="rId300" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000008580;r=5:29622281-29656864;t=ENSRNOT00000012377" xr:uid="{A9EE7728-C42A-A546-8510-97D9454C98BE}"/>
-    <hyperlink ref="S33" r:id="rId301" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000060520;r=5:76240167-76261198;t=ENSRNOT00000087380" xr:uid="{17BA6DDD-7E32-C14E-9D22-1A5BC3F3E102}"/>
-    <hyperlink ref="U28" r:id="rId302" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006171070.2" xr:uid="{A086A99D-4EFF-5E41-8A44-6CB8D541B03F}"/>
-    <hyperlink ref="U29" r:id="rId303" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006149911.2" xr:uid="{B6F874C7-8EA5-CF4C-B87D-2080EC4261E1}"/>
-    <hyperlink ref="U30" r:id="rId304" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014593321.1" xr:uid="{CBDE80B1-2889-2E41-A3AB-A462BB0529A2}"/>
-    <hyperlink ref="U31" r:id="rId305" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014583584.1" xr:uid="{524092C8-C138-F94C-97A5-49284383407B}"/>
-    <hyperlink ref="U32" r:id="rId306" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006157551.2" xr:uid="{5E300699-81BB-DC4B-B4EF-9521E452CBBC}"/>
-    <hyperlink ref="U33" r:id="rId307" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006142736.1" xr:uid="{D8EAF2A7-CBF3-A248-8736-1C73E6D5A6E6}"/>
-    <hyperlink ref="T28" r:id="rId308" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015104955.1" xr:uid="{65F5D11A-6E03-A342-9D58-12D5D46476EC}"/>
-    <hyperlink ref="T29" r:id="rId309" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004019678.3" xr:uid="{0E180717-C4FA-C144-B63E-35DDBB2115F5}"/>
-    <hyperlink ref="T30" r:id="rId310" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012095281.1" xr:uid="{59B5209D-9DC1-1243-A440-EF14CC67C635}"/>
-    <hyperlink ref="T31" r:id="rId311" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004008637.3" xr:uid="{1BDD0F95-0300-7446-8D64-C75FA223F372}"/>
-    <hyperlink ref="T32" r:id="rId312" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004011849.2" xr:uid="{621D08D1-6ECE-3B4D-8CA1-7597DD961EAE}"/>
-    <hyperlink ref="T33" r:id="rId313" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012153904.2" xr:uid="{6F375C08-5884-E845-8D96-E9B47893AFEF}"/>
+    <hyperlink ref="B30" r:id="rId219" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008149225.1" xr:uid="{C8D5707F-A6B7-5F42-A37F-E392603BF24A}"/>
+    <hyperlink ref="B31" r:id="rId220" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008142454.1" xr:uid="{4A76AF29-28C2-A24D-AC15-7F036B5EAC7C}"/>
+    <hyperlink ref="B32" r:id="rId221" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008158869.1" xr:uid="{2B17D951-1BBE-6240-B1C4-EC68DD9B36E5}"/>
+    <hyperlink ref="B33" r:id="rId222" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008141800.1" xr:uid="{4B61BA1E-8B31-D445-92EF-E2E1307C1C50}"/>
+    <hyperlink ref="C28" r:id="rId223" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003809952.3" xr:uid="{D47D5C10-C7A8-3344-965F-AA5B2FBE6249}"/>
+    <hyperlink ref="C29" r:id="rId224" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008954083.1" xr:uid="{A946C99A-3565-674E-99A6-756A120C3BE0}"/>
+    <hyperlink ref="C30" r:id="rId225" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008966413.1" xr:uid="{CB1F0232-225E-9B4D-9861-0EF2C232E9C3}"/>
+    <hyperlink ref="C31" r:id="rId226" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003829302.3" xr:uid="{046093D2-C641-8845-A256-35E6DBDA3731}"/>
+    <hyperlink ref="C32" r:id="rId227" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003821145.4" xr:uid="{33D91A3B-4C2F-F340-9628-82BCF0909CD1}"/>
+    <hyperlink ref="C33" r:id="rId228" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008963253.2" xr:uid="{5501FB6D-5F53-3248-9F69-ACE020B10AAD}"/>
+    <hyperlink ref="E28" r:id="rId229" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016944629.2" xr:uid="{D1DFB061-28CD-2C44-B4F8-FEBF6A7119B3}"/>
+    <hyperlink ref="E29" r:id="rId230" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016919866.2" xr:uid="{10873BA8-F27E-C041-BCBD-D6AAEB0BBA4C}"/>
+    <hyperlink ref="E30" r:id="rId231" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016921830.2" xr:uid="{F5BB1C68-ED09-9149-80AE-8007F3B1F532}"/>
+    <hyperlink ref="E31" r:id="rId232" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001163412.6" xr:uid="{41B8C23E-E9F2-324B-B717-062754DF192C}"/>
+    <hyperlink ref="E32" r:id="rId233" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016959657.1" xr:uid="{DFD37102-77A4-F441-9659-80A345DB7657}"/>
+    <hyperlink ref="E33" r:id="rId234" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016961425.1" xr:uid="{15432E6B-119A-C343-AB51-A626B611B438}"/>
+    <hyperlink ref="F28" r:id="rId235" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005227647.4" xr:uid="{514C9B78-8448-114F-B1B6-E96EE8D38E12}"/>
+    <hyperlink ref="F30" r:id="rId236" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001192605.1" xr:uid="{2F1CF815-1FE9-DB45-A7D7-E8C4CB7D2FEB}"/>
+    <hyperlink ref="F31" r:id="rId237" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001206868.1" xr:uid="{A9DC4ED4-D112-5444-823E-F29D82906F82}"/>
+    <hyperlink ref="F32" r:id="rId238" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001075837.2" xr:uid="{6884B4D3-0162-A442-856D-A58A71F87171}"/>
+    <hyperlink ref="F33" r:id="rId239" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015472683.2" xr:uid="{9BF8BB2F-6A59-4C47-A63D-19EEB957A66E}"/>
+    <hyperlink ref="F29" r:id="rId240" display="http://useast.ensembl.org/Bos_taurus/Transcript/Summary?db=core;g=ENSBTAG00000021456;r=29:44644885-44650618;t=ENSBTAT00000053203" xr:uid="{6081C123-90FB-8748-A4F2-D1EDF517E1B1}"/>
+    <hyperlink ref="G28" r:id="rId241" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_850374.6" xr:uid="{E6E4DAE7-FCE6-8347-9846-3E406689AD9C}"/>
+    <hyperlink ref="G29" r:id="rId242" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022405636.1" xr:uid="{F6429ECC-635F-8D4E-9BCA-ABF9D2F953E1}"/>
+    <hyperlink ref="G30" r:id="rId243" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005633352.2" xr:uid="{B3690D00-692C-A147-8F52-73F9569C235E}"/>
+    <hyperlink ref="G31" r:id="rId244" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022425268.1" xr:uid="{8E6CC29F-C72A-AF44-B546-777E3F4E6329}"/>
+    <hyperlink ref="G32" r:id="rId245" display="http://useast.ensembl.org/Canis_familiaris/Transcript/Summary?db=core;g=ENSCAFG00000008992;r=29:35416246-35477454;t=ENSCAFT00000014292" xr:uid="{C8E25007-86A2-D84C-9781-C53D800CF09C}"/>
+    <hyperlink ref="G33" r:id="rId246" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014117920.2" xr:uid="{DE01DD89-B598-F94C-A1FB-413B53692D06}"/>
+    <hyperlink ref="H28" r:id="rId247" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004065160.2" xr:uid="{39821BAC-E729-1047-BCB5-ADCBAC676978}"/>
+    <hyperlink ref="H29" r:id="rId248" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019036094.1" xr:uid="{7867300D-28B7-BA45-B566-6731F5150266}"/>
+    <hyperlink ref="H30" r:id="rId249" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019037427.1" xr:uid="{9162B635-EA57-D941-BCCC-299AFF65E257}"/>
+    <hyperlink ref="H31" r:id="rId250" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004042473.2" xr:uid="{9019C2DD-F1D1-BA43-94A8-9BDE64D37282}"/>
+    <hyperlink ref="H32" r:id="rId251" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019032379.1" xr:uid="{0917D8EE-CC26-8545-9CC1-31470373506D}"/>
+    <hyperlink ref="H33" r:id="rId252" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019033001.1" xr:uid="{883BF890-C552-B44D-B8D0-822099FB2219}"/>
+    <hyperlink ref="I28" r:id="rId253" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003365914.4" xr:uid="{4C9FE331-975F-C44D-9CC7-5BA09E2CA6DE}"/>
+    <hyperlink ref="I29" r:id="rId254" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001494546.4" xr:uid="{C85EBD3E-0E02-F845-96E4-34F74249E8B3}"/>
+    <hyperlink ref="I30" r:id="rId255" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001498350.6" xr:uid="{A93C8E76-4204-814F-8337-5F0055BDD63E}"/>
+    <hyperlink ref="I31" r:id="rId256" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001504442.6" xr:uid="{21A0E793-546A-674C-A65E-3CF9DBC5CB19}"/>
+    <hyperlink ref="I32" r:id="rId257" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014728036.2" xr:uid="{65435F9B-386F-6A4A-8292-C04563470522}"/>
+    <hyperlink ref="I33" r:id="rId258" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_023628652.1" xr:uid="{12B61A15-2521-E54A-89FD-9EF2C9B465C2}"/>
+    <hyperlink ref="J28" r:id="rId259" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000185515;r=X:155071420-155123074;t=ENST00000369462" xr:uid="{72F41FB8-6F99-F544-9DD5-8DB4907E6CE7}"/>
+    <hyperlink ref="J29" r:id="rId260" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000172732;r=11:65857126-65867653;t=ENST00000308110" xr:uid="{B5B1113A-8D01-9A48-90A6-EE4478A0DA01}"/>
+    <hyperlink ref="J30" r:id="rId261" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000020922;r=11:94415578-94493908;t=ENST00000323929" xr:uid="{1F8E3165-BEF7-5447-8685-9D379C34E87E}"/>
+    <hyperlink ref="J31" r:id="rId262" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000113522;r=5:132556019-132646344;t=ENST00000378823" xr:uid="{5CD74917-B9BE-9D40-83D7-6906DC4BBE07}"/>
+    <hyperlink ref="J32" r:id="rId263" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000104320;r=8:89933336-90003228;t=ENST00000265433" xr:uid="{0BFC1B65-7B21-4E4F-A3E8-80B1D4CCC5CD}"/>
+    <hyperlink ref="J33" r:id="rId264" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000165181;r=9:111686173-111795008;t=ENST00000318737" xr:uid="{014B5093-F14C-224F-8FBF-F43E938BA94F}"/>
+    <hyperlink ref="K28" r:id="rId265" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001097957.3" xr:uid="{7C56E27F-676E-8147-AFC7-8E3B5C927E24}"/>
+    <hyperlink ref="K29" r:id="rId266" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015113669.1" xr:uid="{E9C894E0-B630-1647-AD9F-E724F52E4773}"/>
+    <hyperlink ref="K30" r:id="rId267" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015115484.1" xr:uid="{65436902-35C5-3542-83C2-FF7979CFC654}"/>
+    <hyperlink ref="K31" r:id="rId268" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015140734.1" xr:uid="{B7A87807-035A-FB43-AC29-7957480CABAA}"/>
+    <hyperlink ref="K32" r:id="rId269" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001265739.1" xr:uid="{5B0C340A-525D-E442-A7AA-1883ECCE7C11}"/>
+    <hyperlink ref="K33" r:id="rId270" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001194305.2" xr:uid="{0413ACC2-59A5-624A-A30A-7C8EB1E9FD85}"/>
+    <hyperlink ref="L28" r:id="rId271" display="http://useast.ensembl.org/Callithrix_jacchus/Transcript/Summary?db=core;g=ENSCJAG00000004308;r=NTIC01017779.1:666760-741086;t=ENSCJAT00000008283" xr:uid="{B728F6A1-FAB0-BD43-B2A7-02F3486E83D6}"/>
+    <hyperlink ref="L29" r:id="rId272" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017978286.1" xr:uid="{8B8270ED-D3D0-6146-A45B-AECCF47C92A8}"/>
+    <hyperlink ref="L30" r:id="rId273" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002754671.4" xr:uid="{1D8024EC-89C1-EA46-B9D9-AC32489EBD25}"/>
+    <hyperlink ref="L31" r:id="rId274" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017965277.1" xr:uid="{ACBD279B-77EF-CD48-83FD-F50EF5C7EE05}"/>
+    <hyperlink ref="L32" r:id="rId275" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003734968.3" xr:uid="{F901E58F-3022-EC4E-8E92-33BFFFFC01EA}"/>
+    <hyperlink ref="L33" r:id="rId276" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_009001231.2" xr:uid="{F4C579C9-DA72-B04E-87DB-6D9C6E3AD43B}"/>
+    <hyperlink ref="M28" r:id="rId277" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031201;r=X:75416628-75454001;t=ENSMUST00000033544" xr:uid="{6F2C9EC2-EC4E-1242-A0E2-5665E3CBED22}"/>
+    <hyperlink ref="M29" r:id="rId278" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000024906;r=19:5482345-5488402;t=ENSMUST00000124334" xr:uid="{BC0BE6E9-3F15-B84E-B4F1-A4845E403369}"/>
+    <hyperlink ref="M30" r:id="rId279" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031928;r=9:14784654-14837123;t=ENSMUST00000034405" xr:uid="{4C9CEA63-0A74-E245-BD94-D6B280587EC9}"/>
+    <hyperlink ref="M31" r:id="rId280" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000020380;r=11:53649519-53707319;t=ENSMUST00000020649" xr:uid="{7B597D37-ACBE-6C40-B34F-D40FD09634FB}"/>
+    <hyperlink ref="M32" r:id="rId281" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000028224;r=4:15957925-15992589;t=ENSMUST00000029879" xr:uid="{7A740273-3C8D-4E48-A20A-834CB7C49AFD}"/>
+    <hyperlink ref="M33" r:id="rId282" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000038598;r=4:59043753-59138983;t=ENSMUST00000107547" xr:uid="{95E62931-1C92-CC45-A2C9-FA66EED61D12}"/>
+    <hyperlink ref="O28" r:id="rId283" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001132435.1" xr:uid="{B3961AE5-A341-7240-8B36-841779A6DE40}"/>
+    <hyperlink ref="O29" r:id="rId284" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024254918.1" xr:uid="{A876481E-20AA-254E-BA85-859E5E2D7707}"/>
+    <hyperlink ref="O30" r:id="rId285" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024255393.1" xr:uid="{EB05D9A5-2F5F-6D41-AE0B-0DFFDE9D160F}"/>
+    <hyperlink ref="O31" r:id="rId286" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002815863.3" xr:uid="{95BD49DD-D95F-A241-A8D5-11C93D26BDE5}"/>
+    <hyperlink ref="O32" r:id="rId287" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001131728.1" xr:uid="{42EB3DCC-4B93-D04F-AC86-9B996B592983}"/>
+    <hyperlink ref="O33" r:id="rId288" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024252094.1" xr:uid="{7026020F-A72C-5D40-8841-1DA16F95488C}"/>
+    <hyperlink ref="P28" r:id="rId289" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001243023.1" xr:uid="{B01BCC44-723B-8B47-91B3-EF6B719393B8}"/>
+    <hyperlink ref="P29" r:id="rId290" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003122526.5" xr:uid="{85F1739D-5EA6-2449-8BE6-645961A30FA9}"/>
+    <hyperlink ref="P30" r:id="rId291" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003129788.5" xr:uid="{9FF26DDC-7272-644F-8C34-99EF11D72854}"/>
+    <hyperlink ref="P31" r:id="rId292" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003354274.4" xr:uid="{815D9B47-E0C9-FC40-BD59-F9FC2772FC42}"/>
+    <hyperlink ref="P32" r:id="rId293" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021089136.1" xr:uid="{FF8C19C3-95FB-FC49-81B6-E2571B9A94F3}"/>
+    <hyperlink ref="P33" r:id="rId294" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021085151.1" xr:uid="{F02CFCFB-A453-1542-9881-4E710CF9A5CE}"/>
+    <hyperlink ref="S28" r:id="rId295" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001127300.1" xr:uid="{771477E1-FAED-2542-8E3C-1AB9CB6C4F4A}"/>
+    <hyperlink ref="S29" r:id="rId296" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000020617;r=1:220862386-220867815;t=ENSRNOT00000028015" xr:uid="{830A0A5C-035B-D145-A7FB-2C6AC2A75CCE}"/>
+    <hyperlink ref="S30" r:id="rId297" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000009506;r=8:13305152-13352489;t=ENSRNOT00000012940" xr:uid="{8A69B1E9-D32B-7446-AE65-A83F6FC5F8B9}"/>
+    <hyperlink ref="S31" r:id="rId298" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000033065;r=10:39001498-39054142;t=ENSRNOT00000063772" xr:uid="{2C823A7A-18DE-E74C-9E93-D0C2380E57BB}"/>
+    <hyperlink ref="S32" r:id="rId299" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000008580;r=5:29622281-29656864;t=ENSRNOT00000012377" xr:uid="{A9EE7728-C42A-A546-8510-97D9454C98BE}"/>
+    <hyperlink ref="S33" r:id="rId300" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000060520;r=5:76240167-76261198;t=ENSRNOT00000087380" xr:uid="{17BA6DDD-7E32-C14E-9D22-1A5BC3F3E102}"/>
+    <hyperlink ref="U28" r:id="rId301" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006171070.2" xr:uid="{A086A99D-4EFF-5E41-8A44-6CB8D541B03F}"/>
+    <hyperlink ref="U29" r:id="rId302" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006149911.2" xr:uid="{B6F874C7-8EA5-CF4C-B87D-2080EC4261E1}"/>
+    <hyperlink ref="U30" r:id="rId303" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014593321.1" xr:uid="{CBDE80B1-2889-2E41-A3AB-A462BB0529A2}"/>
+    <hyperlink ref="U31" r:id="rId304" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014583584.1" xr:uid="{524092C8-C138-F94C-97A5-49284383407B}"/>
+    <hyperlink ref="U32" r:id="rId305" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006157551.2" xr:uid="{5E300699-81BB-DC4B-B4EF-9521E452CBBC}"/>
+    <hyperlink ref="U33" r:id="rId306" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006142736.1" xr:uid="{D8EAF2A7-CBF3-A248-8736-1C73E6D5A6E6}"/>
+    <hyperlink ref="T28" r:id="rId307" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015104955.1" xr:uid="{65F5D11A-6E03-A342-9D58-12D5D46476EC}"/>
+    <hyperlink ref="T29" r:id="rId308" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004019678.3" xr:uid="{0E180717-C4FA-C144-B63E-35DDBB2115F5}"/>
+    <hyperlink ref="T30" r:id="rId309" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012095281.1" xr:uid="{59B5209D-9DC1-1243-A440-EF14CC67C635}"/>
+    <hyperlink ref="T31" r:id="rId310" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004008637.3" xr:uid="{1BDD0F95-0300-7446-8D64-C75FA223F372}"/>
+    <hyperlink ref="T32" r:id="rId311" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004011849.2" xr:uid="{621D08D1-6ECE-3B4D-8CA1-7597DD961EAE}"/>
+    <hyperlink ref="T33" r:id="rId312" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012153904.2" xr:uid="{6F375C08-5884-E845-8D96-E9B47893AFEF}"/>
+    <hyperlink ref="B29" r:id="rId313" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008146941.1" xr:uid="{FD2E3501-AAC7-AF40-BDD0-3B32902A6462}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Isoform_ID/expression_samples_list.xlsx
+++ b/Isoform_ID/expression_samples_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amydapper/Desktop/Evo_RecGenes_MS/Isoform_ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F739D7-D5CD-FD41-8CC0-1615E5942F50}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26607DA-4818-074C-947D-CF3704E2C09C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="460" windowWidth="25600" windowHeight="13420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF" sheetId="2" r:id="rId1"/>
@@ -6614,7 +6614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="G14" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:A33"/>
     </sheetView>
   </sheetViews>
@@ -9233,9 +9233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F28:F33"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11562,97 +11562,97 @@
     <hyperlink ref="B31" r:id="rId220" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008142454.1" xr:uid="{4A76AF29-28C2-A24D-AC15-7F036B5EAC7C}"/>
     <hyperlink ref="B32" r:id="rId221" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008158869.1" xr:uid="{2B17D951-1BBE-6240-B1C4-EC68DD9B36E5}"/>
     <hyperlink ref="B33" r:id="rId222" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008141800.1" xr:uid="{4B61BA1E-8B31-D445-92EF-E2E1307C1C50}"/>
-    <hyperlink ref="C28" r:id="rId223" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003809952.3" xr:uid="{D47D5C10-C7A8-3344-965F-AA5B2FBE6249}"/>
-    <hyperlink ref="C29" r:id="rId224" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008954083.1" xr:uid="{A946C99A-3565-674E-99A6-756A120C3BE0}"/>
-    <hyperlink ref="C30" r:id="rId225" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008966413.1" xr:uid="{CB1F0232-225E-9B4D-9861-0EF2C232E9C3}"/>
-    <hyperlink ref="C31" r:id="rId226" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003829302.3" xr:uid="{046093D2-C641-8845-A256-35E6DBDA3731}"/>
-    <hyperlink ref="C32" r:id="rId227" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003821145.4" xr:uid="{33D91A3B-4C2F-F340-9628-82BCF0909CD1}"/>
-    <hyperlink ref="C33" r:id="rId228" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008963253.2" xr:uid="{5501FB6D-5F53-3248-9F69-ACE020B10AAD}"/>
-    <hyperlink ref="E28" r:id="rId229" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016944629.2" xr:uid="{D1DFB061-28CD-2C44-B4F8-FEBF6A7119B3}"/>
-    <hyperlink ref="E29" r:id="rId230" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016919866.2" xr:uid="{10873BA8-F27E-C041-BCBD-D6AAEB0BBA4C}"/>
-    <hyperlink ref="E30" r:id="rId231" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016921830.2" xr:uid="{F5BB1C68-ED09-9149-80AE-8007F3B1F532}"/>
-    <hyperlink ref="E31" r:id="rId232" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001163412.6" xr:uid="{41B8C23E-E9F2-324B-B717-062754DF192C}"/>
-    <hyperlink ref="E32" r:id="rId233" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016959657.1" xr:uid="{DFD37102-77A4-F441-9659-80A345DB7657}"/>
-    <hyperlink ref="E33" r:id="rId234" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016961425.1" xr:uid="{15432E6B-119A-C343-AB51-A626B611B438}"/>
-    <hyperlink ref="F28" r:id="rId235" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005227647.4" xr:uid="{514C9B78-8448-114F-B1B6-E96EE8D38E12}"/>
-    <hyperlink ref="F30" r:id="rId236" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001192605.1" xr:uid="{2F1CF815-1FE9-DB45-A7D7-E8C4CB7D2FEB}"/>
-    <hyperlink ref="F31" r:id="rId237" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001206868.1" xr:uid="{A9DC4ED4-D112-5444-823E-F29D82906F82}"/>
-    <hyperlink ref="F32" r:id="rId238" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001075837.2" xr:uid="{6884B4D3-0162-A442-856D-A58A71F87171}"/>
-    <hyperlink ref="F33" r:id="rId239" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015472683.2" xr:uid="{9BF8BB2F-6A59-4C47-A63D-19EEB957A66E}"/>
-    <hyperlink ref="F29" r:id="rId240" display="http://useast.ensembl.org/Bos_taurus/Transcript/Summary?db=core;g=ENSBTAG00000021456;r=29:44644885-44650618;t=ENSBTAT00000053203" xr:uid="{6081C123-90FB-8748-A4F2-D1EDF517E1B1}"/>
-    <hyperlink ref="G28" r:id="rId241" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_850374.6" xr:uid="{E6E4DAE7-FCE6-8347-9846-3E406689AD9C}"/>
-    <hyperlink ref="G29" r:id="rId242" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022405636.1" xr:uid="{F6429ECC-635F-8D4E-9BCA-ABF9D2F953E1}"/>
-    <hyperlink ref="G30" r:id="rId243" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005633352.2" xr:uid="{B3690D00-692C-A147-8F52-73F9569C235E}"/>
-    <hyperlink ref="G31" r:id="rId244" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022425268.1" xr:uid="{8E6CC29F-C72A-AF44-B546-777E3F4E6329}"/>
-    <hyperlink ref="G32" r:id="rId245" display="http://useast.ensembl.org/Canis_familiaris/Transcript/Summary?db=core;g=ENSCAFG00000008992;r=29:35416246-35477454;t=ENSCAFT00000014292" xr:uid="{C8E25007-86A2-D84C-9781-C53D800CF09C}"/>
-    <hyperlink ref="G33" r:id="rId246" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014117920.2" xr:uid="{DE01DD89-B598-F94C-A1FB-413B53692D06}"/>
-    <hyperlink ref="H28" r:id="rId247" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004065160.2" xr:uid="{39821BAC-E729-1047-BCB5-ADCBAC676978}"/>
-    <hyperlink ref="H29" r:id="rId248" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019036094.1" xr:uid="{7867300D-28B7-BA45-B566-6731F5150266}"/>
-    <hyperlink ref="H30" r:id="rId249" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019037427.1" xr:uid="{9162B635-EA57-D941-BCCC-299AFF65E257}"/>
-    <hyperlink ref="H31" r:id="rId250" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004042473.2" xr:uid="{9019C2DD-F1D1-BA43-94A8-9BDE64D37282}"/>
-    <hyperlink ref="H32" r:id="rId251" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019032379.1" xr:uid="{0917D8EE-CC26-8545-9CC1-31470373506D}"/>
-    <hyperlink ref="H33" r:id="rId252" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019033001.1" xr:uid="{883BF890-C552-B44D-B8D0-822099FB2219}"/>
-    <hyperlink ref="I28" r:id="rId253" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003365914.4" xr:uid="{4C9FE331-975F-C44D-9CC7-5BA09E2CA6DE}"/>
-    <hyperlink ref="I29" r:id="rId254" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001494546.4" xr:uid="{C85EBD3E-0E02-F845-96E4-34F74249E8B3}"/>
-    <hyperlink ref="I30" r:id="rId255" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001498350.6" xr:uid="{A93C8E76-4204-814F-8337-5F0055BDD63E}"/>
-    <hyperlink ref="I31" r:id="rId256" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001504442.6" xr:uid="{21A0E793-546A-674C-A65E-3CF9DBC5CB19}"/>
-    <hyperlink ref="I32" r:id="rId257" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014728036.2" xr:uid="{65435F9B-386F-6A4A-8292-C04563470522}"/>
-    <hyperlink ref="I33" r:id="rId258" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_023628652.1" xr:uid="{12B61A15-2521-E54A-89FD-9EF2C9B465C2}"/>
-    <hyperlink ref="J28" r:id="rId259" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000185515;r=X:155071420-155123074;t=ENST00000369462" xr:uid="{72F41FB8-6F99-F544-9DD5-8DB4907E6CE7}"/>
-    <hyperlink ref="J29" r:id="rId260" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000172732;r=11:65857126-65867653;t=ENST00000308110" xr:uid="{B5B1113A-8D01-9A48-90A6-EE4478A0DA01}"/>
-    <hyperlink ref="J30" r:id="rId261" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000020922;r=11:94415578-94493908;t=ENST00000323929" xr:uid="{1F8E3165-BEF7-5447-8685-9D379C34E87E}"/>
-    <hyperlink ref="J31" r:id="rId262" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000113522;r=5:132556019-132646344;t=ENST00000378823" xr:uid="{5CD74917-B9BE-9D40-83D7-6906DC4BBE07}"/>
-    <hyperlink ref="J32" r:id="rId263" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000104320;r=8:89933336-90003228;t=ENST00000265433" xr:uid="{0BFC1B65-7B21-4E4F-A3E8-80B1D4CCC5CD}"/>
-    <hyperlink ref="J33" r:id="rId264" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000165181;r=9:111686173-111795008;t=ENST00000318737" xr:uid="{014B5093-F14C-224F-8FBF-F43E938BA94F}"/>
-    <hyperlink ref="K28" r:id="rId265" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001097957.3" xr:uid="{7C56E27F-676E-8147-AFC7-8E3B5C927E24}"/>
-    <hyperlink ref="K29" r:id="rId266" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015113669.1" xr:uid="{E9C894E0-B630-1647-AD9F-E724F52E4773}"/>
-    <hyperlink ref="K30" r:id="rId267" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015115484.1" xr:uid="{65436902-35C5-3542-83C2-FF7979CFC654}"/>
-    <hyperlink ref="K31" r:id="rId268" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015140734.1" xr:uid="{B7A87807-035A-FB43-AC29-7957480CABAA}"/>
-    <hyperlink ref="K32" r:id="rId269" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001265739.1" xr:uid="{5B0C340A-525D-E442-A7AA-1883ECCE7C11}"/>
-    <hyperlink ref="K33" r:id="rId270" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001194305.2" xr:uid="{0413ACC2-59A5-624A-A30A-7C8EB1E9FD85}"/>
-    <hyperlink ref="L28" r:id="rId271" display="http://useast.ensembl.org/Callithrix_jacchus/Transcript/Summary?db=core;g=ENSCJAG00000004308;r=NTIC01017779.1:666760-741086;t=ENSCJAT00000008283" xr:uid="{B728F6A1-FAB0-BD43-B2A7-02F3486E83D6}"/>
-    <hyperlink ref="L29" r:id="rId272" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017978286.1" xr:uid="{8B8270ED-D3D0-6146-A45B-AECCF47C92A8}"/>
-    <hyperlink ref="L30" r:id="rId273" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002754671.4" xr:uid="{1D8024EC-89C1-EA46-B9D9-AC32489EBD25}"/>
-    <hyperlink ref="L31" r:id="rId274" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017965277.1" xr:uid="{ACBD279B-77EF-CD48-83FD-F50EF5C7EE05}"/>
-    <hyperlink ref="L32" r:id="rId275" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003734968.3" xr:uid="{F901E58F-3022-EC4E-8E92-33BFFFFC01EA}"/>
-    <hyperlink ref="L33" r:id="rId276" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_009001231.2" xr:uid="{F4C579C9-DA72-B04E-87DB-6D9C6E3AD43B}"/>
-    <hyperlink ref="M28" r:id="rId277" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031201;r=X:75416628-75454001;t=ENSMUST00000033544" xr:uid="{6F2C9EC2-EC4E-1242-A0E2-5665E3CBED22}"/>
-    <hyperlink ref="M29" r:id="rId278" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000024906;r=19:5482345-5488402;t=ENSMUST00000124334" xr:uid="{BC0BE6E9-3F15-B84E-B4F1-A4845E403369}"/>
-    <hyperlink ref="M30" r:id="rId279" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031928;r=9:14784654-14837123;t=ENSMUST00000034405" xr:uid="{4C9CEA63-0A74-E245-BD94-D6B280587EC9}"/>
-    <hyperlink ref="M31" r:id="rId280" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000020380;r=11:53649519-53707319;t=ENSMUST00000020649" xr:uid="{7B597D37-ACBE-6C40-B34F-D40FD09634FB}"/>
-    <hyperlink ref="M32" r:id="rId281" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000028224;r=4:15957925-15992589;t=ENSMUST00000029879" xr:uid="{7A740273-3C8D-4E48-A20A-834CB7C49AFD}"/>
-    <hyperlink ref="M33" r:id="rId282" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000038598;r=4:59043753-59138983;t=ENSMUST00000107547" xr:uid="{95E62931-1C92-CC45-A2C9-FA66EED61D12}"/>
-    <hyperlink ref="O28" r:id="rId283" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001132435.1" xr:uid="{B3961AE5-A341-7240-8B36-841779A6DE40}"/>
-    <hyperlink ref="O29" r:id="rId284" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024254918.1" xr:uid="{A876481E-20AA-254E-BA85-859E5E2D7707}"/>
-    <hyperlink ref="O30" r:id="rId285" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024255393.1" xr:uid="{EB05D9A5-2F5F-6D41-AE0B-0DFFDE9D160F}"/>
-    <hyperlink ref="O31" r:id="rId286" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002815863.3" xr:uid="{95BD49DD-D95F-A241-A8D5-11C93D26BDE5}"/>
-    <hyperlink ref="O32" r:id="rId287" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001131728.1" xr:uid="{42EB3DCC-4B93-D04F-AC86-9B996B592983}"/>
-    <hyperlink ref="O33" r:id="rId288" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024252094.1" xr:uid="{7026020F-A72C-5D40-8841-1DA16F95488C}"/>
-    <hyperlink ref="P28" r:id="rId289" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001243023.1" xr:uid="{B01BCC44-723B-8B47-91B3-EF6B719393B8}"/>
-    <hyperlink ref="P29" r:id="rId290" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003122526.5" xr:uid="{85F1739D-5EA6-2449-8BE6-645961A30FA9}"/>
-    <hyperlink ref="P30" r:id="rId291" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003129788.5" xr:uid="{9FF26DDC-7272-644F-8C34-99EF11D72854}"/>
-    <hyperlink ref="P31" r:id="rId292" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003354274.4" xr:uid="{815D9B47-E0C9-FC40-BD59-F9FC2772FC42}"/>
-    <hyperlink ref="P32" r:id="rId293" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021089136.1" xr:uid="{FF8C19C3-95FB-FC49-81B6-E2571B9A94F3}"/>
-    <hyperlink ref="P33" r:id="rId294" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021085151.1" xr:uid="{F02CFCFB-A453-1542-9881-4E710CF9A5CE}"/>
-    <hyperlink ref="S28" r:id="rId295" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001127300.1" xr:uid="{771477E1-FAED-2542-8E3C-1AB9CB6C4F4A}"/>
-    <hyperlink ref="S29" r:id="rId296" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000020617;r=1:220862386-220867815;t=ENSRNOT00000028015" xr:uid="{830A0A5C-035B-D145-A7FB-2C6AC2A75CCE}"/>
-    <hyperlink ref="S30" r:id="rId297" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000009506;r=8:13305152-13352489;t=ENSRNOT00000012940" xr:uid="{8A69B1E9-D32B-7446-AE65-A83F6FC5F8B9}"/>
-    <hyperlink ref="S31" r:id="rId298" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000033065;r=10:39001498-39054142;t=ENSRNOT00000063772" xr:uid="{2C823A7A-18DE-E74C-9E93-D0C2380E57BB}"/>
-    <hyperlink ref="S32" r:id="rId299" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000008580;r=5:29622281-29656864;t=ENSRNOT00000012377" xr:uid="{A9EE7728-C42A-A546-8510-97D9454C98BE}"/>
-    <hyperlink ref="S33" r:id="rId300" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000060520;r=5:76240167-76261198;t=ENSRNOT00000087380" xr:uid="{17BA6DDD-7E32-C14E-9D22-1A5BC3F3E102}"/>
-    <hyperlink ref="U28" r:id="rId301" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006171070.2" xr:uid="{A086A99D-4EFF-5E41-8A44-6CB8D541B03F}"/>
-    <hyperlink ref="U29" r:id="rId302" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006149911.2" xr:uid="{B6F874C7-8EA5-CF4C-B87D-2080EC4261E1}"/>
-    <hyperlink ref="U30" r:id="rId303" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014593321.1" xr:uid="{CBDE80B1-2889-2E41-A3AB-A462BB0529A2}"/>
-    <hyperlink ref="U31" r:id="rId304" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014583584.1" xr:uid="{524092C8-C138-F94C-97A5-49284383407B}"/>
-    <hyperlink ref="U32" r:id="rId305" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006157551.2" xr:uid="{5E300699-81BB-DC4B-B4EF-9521E452CBBC}"/>
-    <hyperlink ref="U33" r:id="rId306" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006142736.1" xr:uid="{D8EAF2A7-CBF3-A248-8736-1C73E6D5A6E6}"/>
-    <hyperlink ref="T28" r:id="rId307" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015104955.1" xr:uid="{65F5D11A-6E03-A342-9D58-12D5D46476EC}"/>
-    <hyperlink ref="T29" r:id="rId308" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004019678.3" xr:uid="{0E180717-C4FA-C144-B63E-35DDBB2115F5}"/>
-    <hyperlink ref="T30" r:id="rId309" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012095281.1" xr:uid="{59B5209D-9DC1-1243-A440-EF14CC67C635}"/>
-    <hyperlink ref="T31" r:id="rId310" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004008637.3" xr:uid="{1BDD0F95-0300-7446-8D64-C75FA223F372}"/>
-    <hyperlink ref="T32" r:id="rId311" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004011849.2" xr:uid="{621D08D1-6ECE-3B4D-8CA1-7597DD961EAE}"/>
-    <hyperlink ref="T33" r:id="rId312" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012153904.2" xr:uid="{6F375C08-5884-E845-8D96-E9B47893AFEF}"/>
-    <hyperlink ref="B29" r:id="rId313" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008146941.1" xr:uid="{FD2E3501-AAC7-AF40-BDD0-3B32902A6462}"/>
+    <hyperlink ref="C29" r:id="rId223" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008954083.1" xr:uid="{A946C99A-3565-674E-99A6-756A120C3BE0}"/>
+    <hyperlink ref="C30" r:id="rId224" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008966413.1" xr:uid="{CB1F0232-225E-9B4D-9861-0EF2C232E9C3}"/>
+    <hyperlink ref="C31" r:id="rId225" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003829302.3" xr:uid="{046093D2-C641-8845-A256-35E6DBDA3731}"/>
+    <hyperlink ref="C32" r:id="rId226" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003821145.4" xr:uid="{33D91A3B-4C2F-F340-9628-82BCF0909CD1}"/>
+    <hyperlink ref="C33" r:id="rId227" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008963253.2" xr:uid="{5501FB6D-5F53-3248-9F69-ACE020B10AAD}"/>
+    <hyperlink ref="E28" r:id="rId228" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016944629.2" xr:uid="{D1DFB061-28CD-2C44-B4F8-FEBF6A7119B3}"/>
+    <hyperlink ref="E29" r:id="rId229" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016919866.2" xr:uid="{10873BA8-F27E-C041-BCBD-D6AAEB0BBA4C}"/>
+    <hyperlink ref="E30" r:id="rId230" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016921830.2" xr:uid="{F5BB1C68-ED09-9149-80AE-8007F3B1F532}"/>
+    <hyperlink ref="E31" r:id="rId231" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001163412.6" xr:uid="{41B8C23E-E9F2-324B-B717-062754DF192C}"/>
+    <hyperlink ref="E32" r:id="rId232" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016959657.1" xr:uid="{DFD37102-77A4-F441-9659-80A345DB7657}"/>
+    <hyperlink ref="E33" r:id="rId233" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_016961425.1" xr:uid="{15432E6B-119A-C343-AB51-A626B611B438}"/>
+    <hyperlink ref="F28" r:id="rId234" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005227647.4" xr:uid="{514C9B78-8448-114F-B1B6-E96EE8D38E12}"/>
+    <hyperlink ref="F30" r:id="rId235" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001192605.1" xr:uid="{2F1CF815-1FE9-DB45-A7D7-E8C4CB7D2FEB}"/>
+    <hyperlink ref="F31" r:id="rId236" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001206868.1" xr:uid="{A9DC4ED4-D112-5444-823E-F29D82906F82}"/>
+    <hyperlink ref="F32" r:id="rId237" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001075837.2" xr:uid="{6884B4D3-0162-A442-856D-A58A71F87171}"/>
+    <hyperlink ref="F33" r:id="rId238" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015472683.2" xr:uid="{9BF8BB2F-6A59-4C47-A63D-19EEB957A66E}"/>
+    <hyperlink ref="F29" r:id="rId239" display="http://useast.ensembl.org/Bos_taurus/Transcript/Summary?db=core;g=ENSBTAG00000021456;r=29:44644885-44650618;t=ENSBTAT00000053203" xr:uid="{6081C123-90FB-8748-A4F2-D1EDF517E1B1}"/>
+    <hyperlink ref="G28" r:id="rId240" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_850374.6" xr:uid="{E6E4DAE7-FCE6-8347-9846-3E406689AD9C}"/>
+    <hyperlink ref="G29" r:id="rId241" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022405636.1" xr:uid="{F6429ECC-635F-8D4E-9BCA-ABF9D2F953E1}"/>
+    <hyperlink ref="G30" r:id="rId242" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_005633352.2" xr:uid="{B3690D00-692C-A147-8F52-73F9569C235E}"/>
+    <hyperlink ref="G31" r:id="rId243" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_022425268.1" xr:uid="{8E6CC29F-C72A-AF44-B546-777E3F4E6329}"/>
+    <hyperlink ref="G32" r:id="rId244" display="http://useast.ensembl.org/Canis_familiaris/Transcript/Summary?db=core;g=ENSCAFG00000008992;r=29:35416246-35477454;t=ENSCAFT00000014292" xr:uid="{C8E25007-86A2-D84C-9781-C53D800CF09C}"/>
+    <hyperlink ref="G33" r:id="rId245" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014117920.2" xr:uid="{DE01DD89-B598-F94C-A1FB-413B53692D06}"/>
+    <hyperlink ref="H28" r:id="rId246" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004065160.2" xr:uid="{39821BAC-E729-1047-BCB5-ADCBAC676978}"/>
+    <hyperlink ref="H29" r:id="rId247" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019036094.1" xr:uid="{7867300D-28B7-BA45-B566-6731F5150266}"/>
+    <hyperlink ref="H30" r:id="rId248" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019037427.1" xr:uid="{9162B635-EA57-D941-BCCC-299AFF65E257}"/>
+    <hyperlink ref="H31" r:id="rId249" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004042473.2" xr:uid="{9019C2DD-F1D1-BA43-94A8-9BDE64D37282}"/>
+    <hyperlink ref="H32" r:id="rId250" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019032379.1" xr:uid="{0917D8EE-CC26-8545-9CC1-31470373506D}"/>
+    <hyperlink ref="H33" r:id="rId251" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_019033001.1" xr:uid="{883BF890-C552-B44D-B8D0-822099FB2219}"/>
+    <hyperlink ref="I28" r:id="rId252" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003365914.4" xr:uid="{4C9FE331-975F-C44D-9CC7-5BA09E2CA6DE}"/>
+    <hyperlink ref="I29" r:id="rId253" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001494546.4" xr:uid="{C85EBD3E-0E02-F845-96E4-34F74249E8B3}"/>
+    <hyperlink ref="I30" r:id="rId254" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001498350.6" xr:uid="{A93C8E76-4204-814F-8337-5F0055BDD63E}"/>
+    <hyperlink ref="I31" r:id="rId255" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001504442.6" xr:uid="{21A0E793-546A-674C-A65E-3CF9DBC5CB19}"/>
+    <hyperlink ref="I32" r:id="rId256" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014728036.2" xr:uid="{65435F9B-386F-6A4A-8292-C04563470522}"/>
+    <hyperlink ref="I33" r:id="rId257" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_023628652.1" xr:uid="{12B61A15-2521-E54A-89FD-9EF2C9B465C2}"/>
+    <hyperlink ref="J28" r:id="rId258" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000185515;r=X:155071420-155123074;t=ENST00000369462" xr:uid="{72F41FB8-6F99-F544-9DD5-8DB4907E6CE7}"/>
+    <hyperlink ref="J29" r:id="rId259" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000172732;r=11:65857126-65867653;t=ENST00000308110" xr:uid="{B5B1113A-8D01-9A48-90A6-EE4478A0DA01}"/>
+    <hyperlink ref="J30" r:id="rId260" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000020922;r=11:94415578-94493908;t=ENST00000323929" xr:uid="{1F8E3165-BEF7-5447-8685-9D379C34E87E}"/>
+    <hyperlink ref="J31" r:id="rId261" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000113522;r=5:132556019-132646344;t=ENST00000378823" xr:uid="{5CD74917-B9BE-9D40-83D7-6906DC4BBE07}"/>
+    <hyperlink ref="J32" r:id="rId262" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000104320;r=8:89933336-90003228;t=ENST00000265433" xr:uid="{0BFC1B65-7B21-4E4F-A3E8-80B1D4CCC5CD}"/>
+    <hyperlink ref="J33" r:id="rId263" display="http://useast.ensembl.org/Homo_sapiens/Transcript/Summary?db=core;g=ENSG00000165181;r=9:111686173-111795008;t=ENST00000318737" xr:uid="{014B5093-F14C-224F-8FBF-F43E938BA94F}"/>
+    <hyperlink ref="K28" r:id="rId264" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_001097957.3" xr:uid="{7C56E27F-676E-8147-AFC7-8E3B5C927E24}"/>
+    <hyperlink ref="K29" r:id="rId265" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015113669.1" xr:uid="{E9C894E0-B630-1647-AD9F-E724F52E4773}"/>
+    <hyperlink ref="K30" r:id="rId266" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015115484.1" xr:uid="{65436902-35C5-3542-83C2-FF7979CFC654}"/>
+    <hyperlink ref="K31" r:id="rId267" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015140734.1" xr:uid="{B7A87807-035A-FB43-AC29-7957480CABAA}"/>
+    <hyperlink ref="K32" r:id="rId268" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001265739.1" xr:uid="{5B0C340A-525D-E442-A7AA-1883ECCE7C11}"/>
+    <hyperlink ref="K33" r:id="rId269" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001194305.2" xr:uid="{0413ACC2-59A5-624A-A30A-7C8EB1E9FD85}"/>
+    <hyperlink ref="L28" r:id="rId270" display="http://useast.ensembl.org/Callithrix_jacchus/Transcript/Summary?db=core;g=ENSCJAG00000004308;r=NTIC01017779.1:666760-741086;t=ENSCJAT00000008283" xr:uid="{B728F6A1-FAB0-BD43-B2A7-02F3486E83D6}"/>
+    <hyperlink ref="L29" r:id="rId271" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017978286.1" xr:uid="{8B8270ED-D3D0-6146-A45B-AECCF47C92A8}"/>
+    <hyperlink ref="L30" r:id="rId272" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002754671.4" xr:uid="{1D8024EC-89C1-EA46-B9D9-AC32489EBD25}"/>
+    <hyperlink ref="L31" r:id="rId273" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_017965277.1" xr:uid="{ACBD279B-77EF-CD48-83FD-F50EF5C7EE05}"/>
+    <hyperlink ref="L32" r:id="rId274" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003734968.3" xr:uid="{F901E58F-3022-EC4E-8E92-33BFFFFC01EA}"/>
+    <hyperlink ref="L33" r:id="rId275" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_009001231.2" xr:uid="{F4C579C9-DA72-B04E-87DB-6D9C6E3AD43B}"/>
+    <hyperlink ref="M28" r:id="rId276" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031201;r=X:75416628-75454001;t=ENSMUST00000033544" xr:uid="{6F2C9EC2-EC4E-1242-A0E2-5665E3CBED22}"/>
+    <hyperlink ref="M29" r:id="rId277" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000024906;r=19:5482345-5488402;t=ENSMUST00000124334" xr:uid="{BC0BE6E9-3F15-B84E-B4F1-A4845E403369}"/>
+    <hyperlink ref="M30" r:id="rId278" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000031928;r=9:14784654-14837123;t=ENSMUST00000034405" xr:uid="{4C9CEA63-0A74-E245-BD94-D6B280587EC9}"/>
+    <hyperlink ref="M31" r:id="rId279" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000020380;r=11:53649519-53707319;t=ENSMUST00000020649" xr:uid="{7B597D37-ACBE-6C40-B34F-D40FD09634FB}"/>
+    <hyperlink ref="M32" r:id="rId280" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000028224;r=4:15957925-15992589;t=ENSMUST00000029879" xr:uid="{7A740273-3C8D-4E48-A20A-834CB7C49AFD}"/>
+    <hyperlink ref="M33" r:id="rId281" display="http://www.ensembl.org/Mus_musculus/Transcript/Summary?db=core;g=ENSMUSG00000038598;r=4:59043753-59138983;t=ENSMUST00000107547" xr:uid="{95E62931-1C92-CC45-A2C9-FA66EED61D12}"/>
+    <hyperlink ref="O28" r:id="rId282" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001132435.1" xr:uid="{B3961AE5-A341-7240-8B36-841779A6DE40}"/>
+    <hyperlink ref="O29" r:id="rId283" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024254918.1" xr:uid="{A876481E-20AA-254E-BA85-859E5E2D7707}"/>
+    <hyperlink ref="O30" r:id="rId284" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024255393.1" xr:uid="{EB05D9A5-2F5F-6D41-AE0B-0DFFDE9D160F}"/>
+    <hyperlink ref="O31" r:id="rId285" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_002815863.3" xr:uid="{95BD49DD-D95F-A241-A8D5-11C93D26BDE5}"/>
+    <hyperlink ref="O32" r:id="rId286" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001131728.1" xr:uid="{42EB3DCC-4B93-D04F-AC86-9B996B592983}"/>
+    <hyperlink ref="O33" r:id="rId287" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_024252094.1" xr:uid="{7026020F-A72C-5D40-8841-1DA16F95488C}"/>
+    <hyperlink ref="P28" r:id="rId288" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001243023.1" xr:uid="{B01BCC44-723B-8B47-91B3-EF6B719393B8}"/>
+    <hyperlink ref="P29" r:id="rId289" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003122526.5" xr:uid="{85F1739D-5EA6-2449-8BE6-645961A30FA9}"/>
+    <hyperlink ref="P30" r:id="rId290" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003129788.5" xr:uid="{9FF26DDC-7272-644F-8C34-99EF11D72854}"/>
+    <hyperlink ref="P31" r:id="rId291" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003354274.4" xr:uid="{815D9B47-E0C9-FC40-BD59-F9FC2772FC42}"/>
+    <hyperlink ref="P32" r:id="rId292" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021089136.1" xr:uid="{FF8C19C3-95FB-FC49-81B6-E2571B9A94F3}"/>
+    <hyperlink ref="P33" r:id="rId293" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_021085151.1" xr:uid="{F02CFCFB-A453-1542-9881-4E710CF9A5CE}"/>
+    <hyperlink ref="S28" r:id="rId294" display="https://www.ncbi.nlm.nih.gov/nuccore/NM_001127300.1" xr:uid="{771477E1-FAED-2542-8E3C-1AB9CB6C4F4A}"/>
+    <hyperlink ref="S29" r:id="rId295" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000020617;r=1:220862386-220867815;t=ENSRNOT00000028015" xr:uid="{830A0A5C-035B-D145-A7FB-2C6AC2A75CCE}"/>
+    <hyperlink ref="S30" r:id="rId296" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000009506;r=8:13305152-13352489;t=ENSRNOT00000012940" xr:uid="{8A69B1E9-D32B-7446-AE65-A83F6FC5F8B9}"/>
+    <hyperlink ref="S31" r:id="rId297" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000033065;r=10:39001498-39054142;t=ENSRNOT00000063772" xr:uid="{2C823A7A-18DE-E74C-9E93-D0C2380E57BB}"/>
+    <hyperlink ref="S32" r:id="rId298" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000008580;r=5:29622281-29656864;t=ENSRNOT00000012377" xr:uid="{A9EE7728-C42A-A546-8510-97D9454C98BE}"/>
+    <hyperlink ref="S33" r:id="rId299" display="http://www.ensembl.org/Rattus_norvegicus/Transcript/Summary?db=core;g=ENSRNOG00000060520;r=5:76240167-76261198;t=ENSRNOT00000087380" xr:uid="{17BA6DDD-7E32-C14E-9D22-1A5BC3F3E102}"/>
+    <hyperlink ref="U28" r:id="rId300" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006171070.2" xr:uid="{A086A99D-4EFF-5E41-8A44-6CB8D541B03F}"/>
+    <hyperlink ref="U29" r:id="rId301" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006149911.2" xr:uid="{B6F874C7-8EA5-CF4C-B87D-2080EC4261E1}"/>
+    <hyperlink ref="U30" r:id="rId302" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014593321.1" xr:uid="{CBDE80B1-2889-2E41-A3AB-A462BB0529A2}"/>
+    <hyperlink ref="U31" r:id="rId303" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_014583584.1" xr:uid="{524092C8-C138-F94C-97A5-49284383407B}"/>
+    <hyperlink ref="U32" r:id="rId304" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006157551.2" xr:uid="{5E300699-81BB-DC4B-B4EF-9521E452CBBC}"/>
+    <hyperlink ref="U33" r:id="rId305" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_006142736.1" xr:uid="{D8EAF2A7-CBF3-A248-8736-1C73E6D5A6E6}"/>
+    <hyperlink ref="T28" r:id="rId306" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_015104955.1" xr:uid="{65F5D11A-6E03-A342-9D58-12D5D46476EC}"/>
+    <hyperlink ref="T29" r:id="rId307" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004019678.3" xr:uid="{0E180717-C4FA-C144-B63E-35DDBB2115F5}"/>
+    <hyperlink ref="T30" r:id="rId308" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012095281.1" xr:uid="{59B5209D-9DC1-1243-A440-EF14CC67C635}"/>
+    <hyperlink ref="T31" r:id="rId309" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004008637.3" xr:uid="{1BDD0F95-0300-7446-8D64-C75FA223F372}"/>
+    <hyperlink ref="T32" r:id="rId310" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_004011849.2" xr:uid="{621D08D1-6ECE-3B4D-8CA1-7597DD961EAE}"/>
+    <hyperlink ref="T33" r:id="rId311" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_012153904.2" xr:uid="{6F375C08-5884-E845-8D96-E9B47893AFEF}"/>
+    <hyperlink ref="B29" r:id="rId312" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_008146941.1" xr:uid="{FD2E3501-AAC7-AF40-BDD0-3B32902A6462}"/>
+    <hyperlink ref="C28" r:id="rId313" display="https://www.ncbi.nlm.nih.gov/nuccore/XM_003809952.3" xr:uid="{D47D5C10-C7A8-3344-965F-AA5B2FBE6249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
